--- a/IndicatorLEDs_PCB/BOM/LED Indicator BOM.xlsx
+++ b/IndicatorLEDs_PCB/BOM/LED Indicator BOM.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\hyperloop\electrical\IndicatorLEDs_PCB\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB59FA1A-D74F-48E9-9801-B20FC20902FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="BOM V1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Import" sheetId="2" r:id="rId4"/>
+    <sheet name="BOM V1" sheetId="1" r:id="rId1"/>
+    <sheet name="Import" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
   <si>
     <t>Component</t>
   </si>
@@ -366,42 +383,81 @@
   </si>
   <si>
     <t>LED SPADE CRIMP</t>
+  </si>
+  <si>
+    <t>2.2M</t>
+  </si>
+  <si>
+    <t>Spare PWR Resistor</t>
+  </si>
+  <si>
+    <t>A121211CT-ND</t>
+  </si>
+  <si>
+    <t>3.3M</t>
+  </si>
+  <si>
+    <t>A121245CT-ND</t>
+  </si>
+  <si>
+    <t>4.7M</t>
+  </si>
+  <si>
+    <t>A121264CT-ND</t>
+  </si>
+  <si>
+    <t>3.9M</t>
+  </si>
+  <si>
+    <t>A121246CT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss am/pm"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -415,9 +471,27 @@
         <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F0FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
-    <border/>
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -431,198 +505,491 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8F0FE"/>
+          <bgColor rgb="FFE8F0FE"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE8F0FE"/>
-          <bgColor rgb="FFE8F0FE"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="2" pivot="0" name="BOM V1-style">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="BOM V1-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A3:AB50" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:AB50" headerRowCount="0">
   <tableColumns count="28">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
-    <tableColumn name="Column10" id="10"/>
-    <tableColumn name="Column11" id="11"/>
-    <tableColumn name="Column12" id="12"/>
-    <tableColumn name="Column13" id="13"/>
-    <tableColumn name="Column14" id="14"/>
-    <tableColumn name="Column15" id="15"/>
-    <tableColumn name="Column16" id="16"/>
-    <tableColumn name="Column17" id="17"/>
-    <tableColumn name="Column18" id="18"/>
-    <tableColumn name="Column19" id="19"/>
-    <tableColumn name="Column20" id="20"/>
-    <tableColumn name="Column21" id="21"/>
-    <tableColumn name="Column22" id="22"/>
-    <tableColumn name="Column23" id="23"/>
-    <tableColumn name="Column24" id="24"/>
-    <tableColumn name="Column25" id="25"/>
-    <tableColumn name="Column26" id="26"/>
-    <tableColumn name="Column27" id="27"/>
-    <tableColumn name="Column28" id="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Column28"/>
   </tableColumns>
-  <tableStyleInfo name="BOM V1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="BOM V1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.43"/>
-    <col customWidth="1" min="2" max="2" width="4.86"/>
-    <col customWidth="1" min="3" max="3" width="14.14"/>
-    <col customWidth="1" min="4" max="4" width="13.14"/>
-    <col customWidth="1" min="5" max="5" width="18.14"/>
-    <col customWidth="1" min="6" max="6" width="28.29"/>
-    <col customWidth="1" min="7" max="7" width="15.29"/>
-    <col customWidth="1" min="8" max="8" width="19.0"/>
-    <col customWidth="1" min="10" max="10" width="19.0"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -631,7 +998,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -689,12 +1056,12 @@
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -713,10 +1080,10 @@
         <v>101</v>
       </c>
       <c r="K3" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="19">
-        <f t="shared" ref="L3:L16" si="1">B3*K3</f>
+        <f t="shared" ref="L3:L16" si="0">B3*K3</f>
         <v>0</v>
       </c>
       <c r="M3" s="12" t="s">
@@ -738,12 +1105,12 @@
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
@@ -762,10 +1129,10 @@
         <v>19</v>
       </c>
       <c r="K4" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="12" t="s">
@@ -787,12 +1154,12 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -813,10 +1180,10 @@
         <v>26</v>
       </c>
       <c r="K5" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="16"/>
@@ -836,12 +1203,12 @@
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="21">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>104</v>
@@ -862,10 +1229,10 @@
         <v>34</v>
       </c>
       <c r="K6" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="16"/>
@@ -885,12 +1252,12 @@
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -911,10 +1278,10 @@
         <v>41</v>
       </c>
       <c r="K7" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="16"/>
@@ -934,12 +1301,12 @@
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -960,10 +1327,10 @@
         <v>48</v>
       </c>
       <c r="K8" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="16"/>
@@ -983,12 +1350,12 @@
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>53</v>
@@ -1009,10 +1376,10 @@
         <v>56</v>
       </c>
       <c r="K9" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="16"/>
@@ -1032,12 +1399,12 @@
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>61</v>
@@ -1058,10 +1425,10 @@
         <v>64</v>
       </c>
       <c r="K10" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="16"/>
@@ -1081,12 +1448,12 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>68</v>
@@ -1107,10 +1474,10 @@
         <v>70</v>
       </c>
       <c r="K11" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="16"/>
@@ -1130,12 +1497,12 @@
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -1152,10 +1519,10 @@
         <v>27</v>
       </c>
       <c r="K12" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="12" t="s">
@@ -1177,12 +1544,12 @@
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -1199,10 +1566,10 @@
         <v>28</v>
       </c>
       <c r="K13" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="12" t="s">
@@ -1224,12 +1591,12 @@
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -1246,10 +1613,10 @@
         <v>35</v>
       </c>
       <c r="K14" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14" s="12" t="s">
@@ -1271,12 +1638,12 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1293,10 +1660,10 @@
         <v>113</v>
       </c>
       <c r="K15" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="12" t="s">
@@ -1318,12 +1685,12 @@
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -1340,10 +1707,10 @@
         <v>116</v>
       </c>
       <c r="K16" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="12" t="s">
@@ -1365,127 +1732,159 @@
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
     </row>
-    <row r="17">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-    </row>
-    <row r="21">
+    <row r="17" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26">
+        <v>3</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+    </row>
+    <row r="18" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28">
+        <v>3</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+    </row>
+    <row r="19" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26">
+        <v>3</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+    </row>
+    <row r="20" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28">
+        <v>1</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+    </row>
+    <row r="21" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="22"/>
@@ -1515,7 +1914,7 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="22"/>
@@ -1545,7 +1944,7 @@
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="22"/>
@@ -1575,7 +1974,7 @@
       <c r="AA23" s="16"/>
       <c r="AB23" s="16"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="22"/>
@@ -1605,7 +2004,7 @@
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="22"/>
@@ -1635,7 +2034,7 @@
       <c r="AA25" s="16"/>
       <c r="AB25" s="16"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="22"/>
@@ -1665,7 +2064,7 @@
       <c r="AA26" s="16"/>
       <c r="AB26" s="16"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="22"/>
@@ -1695,7 +2094,7 @@
       <c r="AA27" s="16"/>
       <c r="AB27" s="16"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="22"/>
@@ -1725,7 +2124,7 @@
       <c r="AA28" s="16"/>
       <c r="AB28" s="16"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="22"/>
@@ -1755,7 +2154,7 @@
       <c r="AA29" s="16"/>
       <c r="AB29" s="16"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="22"/>
@@ -1785,7 +2184,7 @@
       <c r="AA30" s="16"/>
       <c r="AB30" s="16"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="22"/>
@@ -1815,7 +2214,7 @@
       <c r="AA31" s="16"/>
       <c r="AB31" s="16"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="22"/>
@@ -1845,7 +2244,7 @@
       <c r="AA32" s="16"/>
       <c r="AB32" s="16"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="22"/>
@@ -1875,7 +2274,7 @@
       <c r="AA33" s="16"/>
       <c r="AB33" s="16"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="22"/>
@@ -1905,7 +2304,7 @@
       <c r="AA34" s="16"/>
       <c r="AB34" s="16"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="22"/>
@@ -1935,7 +2334,7 @@
       <c r="AA35" s="16"/>
       <c r="AB35" s="16"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="22"/>
@@ -1965,7 +2364,7 @@
       <c r="AA36" s="16"/>
       <c r="AB36" s="16"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="22"/>
@@ -1995,7 +2394,7 @@
       <c r="AA37" s="16"/>
       <c r="AB37" s="16"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="22"/>
@@ -2025,7 +2424,7 @@
       <c r="AA38" s="16"/>
       <c r="AB38" s="16"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="22"/>
@@ -2055,7 +2454,7 @@
       <c r="AA39" s="16"/>
       <c r="AB39" s="16"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="22"/>
@@ -2085,7 +2484,7 @@
       <c r="AA40" s="16"/>
       <c r="AB40" s="16"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="22"/>
@@ -2115,7 +2514,7 @@
       <c r="AA41" s="16"/>
       <c r="AB41" s="16"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="22"/>
@@ -2145,7 +2544,7 @@
       <c r="AA42" s="16"/>
       <c r="AB42" s="16"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="22"/>
@@ -2175,7 +2574,7 @@
       <c r="AA43" s="16"/>
       <c r="AB43" s="16"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="22"/>
@@ -2205,7 +2604,7 @@
       <c r="AA44" s="16"/>
       <c r="AB44" s="16"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="22"/>
@@ -2235,7 +2634,7 @@
       <c r="AA45" s="16"/>
       <c r="AB45" s="16"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="22"/>
@@ -2265,7 +2664,7 @@
       <c r="AA46" s="16"/>
       <c r="AB46" s="16"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="22"/>
@@ -2295,7 +2694,7 @@
       <c r="AA47" s="16"/>
       <c r="AB47" s="16"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="22"/>
@@ -2325,7 +2724,7 @@
       <c r="AA48" s="16"/>
       <c r="AB48" s="16"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="22"/>
@@ -2355,7 +2754,7 @@
       <c r="AA49" s="16"/>
       <c r="AB49" s="16"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="22"/>
@@ -2385,5659 +2784,5661 @@
       <c r="AA50" s="16"/>
       <c r="AB50" s="16"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75">
+    <row r="75" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76">
+    <row r="76" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77">
+    <row r="77" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78">
+    <row r="78" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
     </row>
-    <row r="189">
+    <row r="189" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
     </row>
-    <row r="191">
+    <row r="191" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
     </row>
-    <row r="192">
+    <row r="192" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
     </row>
-    <row r="193">
+    <row r="193" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
     </row>
-    <row r="194">
+    <row r="194" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
     </row>
-    <row r="195">
+    <row r="195" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
     </row>
-    <row r="200">
+    <row r="200" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
     </row>
-    <row r="201">
+    <row r="201" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
     </row>
-    <row r="202">
+    <row r="202" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
     </row>
-    <row r="203">
+    <row r="203" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="K203" s="4"/>
       <c r="L203" s="4"/>
     </row>
-    <row r="204">
+    <row r="204" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
     </row>
-    <row r="205">
+    <row r="205" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
     </row>
-    <row r="206">
+    <row r="206" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
     </row>
-    <row r="207">
+    <row r="207" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
     </row>
-    <row r="208">
+    <row r="208" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
     </row>
-    <row r="209">
+    <row r="209" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
     </row>
-    <row r="210">
+    <row r="210" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
     </row>
-    <row r="211">
+    <row r="211" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
     </row>
-    <row r="212">
+    <row r="212" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="K212" s="4"/>
       <c r="L212" s="4"/>
     </row>
-    <row r="213">
+    <row r="213" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="K213" s="4"/>
       <c r="L213" s="4"/>
     </row>
-    <row r="214">
+    <row r="214" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
     </row>
-    <row r="215">
+    <row r="215" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="K215" s="4"/>
       <c r="L215" s="4"/>
     </row>
-    <row r="216">
+    <row r="216" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
     </row>
-    <row r="217">
+    <row r="217" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
     </row>
-    <row r="218">
+    <row r="218" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
     </row>
-    <row r="219">
+    <row r="219" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="K219" s="4"/>
       <c r="L219" s="4"/>
     </row>
-    <row r="220">
+    <row r="220" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
     </row>
-    <row r="221">
+    <row r="221" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="K221" s="4"/>
       <c r="L221" s="4"/>
     </row>
-    <row r="222">
+    <row r="222" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
     </row>
-    <row r="223">
+    <row r="223" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
     </row>
-    <row r="224">
+    <row r="224" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="K224" s="4"/>
       <c r="L224" s="4"/>
     </row>
-    <row r="225">
+    <row r="225" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="K225" s="4"/>
       <c r="L225" s="4"/>
     </row>
-    <row r="226">
+    <row r="226" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
     </row>
-    <row r="227">
+    <row r="227" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="K227" s="4"/>
       <c r="L227" s="4"/>
     </row>
-    <row r="228">
+    <row r="228" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
     </row>
-    <row r="229">
+    <row r="229" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="K229" s="4"/>
       <c r="L229" s="4"/>
     </row>
-    <row r="230">
+    <row r="230" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="K230" s="4"/>
       <c r="L230" s="4"/>
     </row>
-    <row r="231">
+    <row r="231" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="K231" s="4"/>
       <c r="L231" s="4"/>
     </row>
-    <row r="232">
+    <row r="232" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="K232" s="4"/>
       <c r="L232" s="4"/>
     </row>
-    <row r="233">
+    <row r="233" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="K233" s="4"/>
       <c r="L233" s="4"/>
     </row>
-    <row r="234">
+    <row r="234" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="K234" s="4"/>
       <c r="L234" s="4"/>
     </row>
-    <row r="235">
+    <row r="235" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="K235" s="4"/>
       <c r="L235" s="4"/>
     </row>
-    <row r="236">
+    <row r="236" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="K236" s="4"/>
       <c r="L236" s="4"/>
     </row>
-    <row r="237">
+    <row r="237" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="K237" s="4"/>
       <c r="L237" s="4"/>
     </row>
-    <row r="238">
+    <row r="238" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="K238" s="4"/>
       <c r="L238" s="4"/>
     </row>
-    <row r="239">
+    <row r="239" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="K239" s="4"/>
       <c r="L239" s="4"/>
     </row>
-    <row r="240">
+    <row r="240" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="K240" s="4"/>
       <c r="L240" s="4"/>
     </row>
-    <row r="241">
+    <row r="241" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="K241" s="4"/>
       <c r="L241" s="4"/>
     </row>
-    <row r="242">
+    <row r="242" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="K242" s="4"/>
       <c r="L242" s="4"/>
     </row>
-    <row r="243">
+    <row r="243" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="K243" s="4"/>
       <c r="L243" s="4"/>
     </row>
-    <row r="244">
+    <row r="244" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="K244" s="4"/>
       <c r="L244" s="4"/>
     </row>
-    <row r="245">
+    <row r="245" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="K245" s="4"/>
       <c r="L245" s="4"/>
     </row>
-    <row r="246">
+    <row r="246" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="K246" s="4"/>
       <c r="L246" s="4"/>
     </row>
-    <row r="247">
+    <row r="247" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="K247" s="4"/>
       <c r="L247" s="4"/>
     </row>
-    <row r="248">
+    <row r="248" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="K248" s="4"/>
       <c r="L248" s="4"/>
     </row>
-    <row r="249">
+    <row r="249" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="K249" s="4"/>
       <c r="L249" s="4"/>
     </row>
-    <row r="250">
+    <row r="250" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="K250" s="4"/>
       <c r="L250" s="4"/>
     </row>
-    <row r="251">
+    <row r="251" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="K251" s="4"/>
       <c r="L251" s="4"/>
     </row>
-    <row r="252">
+    <row r="252" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="K252" s="4"/>
       <c r="L252" s="4"/>
     </row>
-    <row r="253">
+    <row r="253" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="K253" s="4"/>
       <c r="L253" s="4"/>
     </row>
-    <row r="254">
+    <row r="254" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="K254" s="4"/>
       <c r="L254" s="4"/>
     </row>
-    <row r="255">
+    <row r="255" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="K255" s="4"/>
       <c r="L255" s="4"/>
     </row>
-    <row r="256">
+    <row r="256" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="K256" s="4"/>
       <c r="L256" s="4"/>
     </row>
-    <row r="257">
+    <row r="257" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="K257" s="4"/>
       <c r="L257" s="4"/>
     </row>
-    <row r="258">
+    <row r="258" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="K258" s="4"/>
       <c r="L258" s="4"/>
     </row>
-    <row r="259">
+    <row r="259" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="K259" s="4"/>
       <c r="L259" s="4"/>
     </row>
-    <row r="260">
+    <row r="260" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="K260" s="4"/>
       <c r="L260" s="4"/>
     </row>
-    <row r="261">
+    <row r="261" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="K261" s="4"/>
       <c r="L261" s="4"/>
     </row>
-    <row r="262">
+    <row r="262" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="K262" s="4"/>
       <c r="L262" s="4"/>
     </row>
-    <row r="263">
+    <row r="263" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="K263" s="4"/>
       <c r="L263" s="4"/>
     </row>
-    <row r="264">
+    <row r="264" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="K264" s="4"/>
       <c r="L264" s="4"/>
     </row>
-    <row r="265">
+    <row r="265" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="K265" s="4"/>
       <c r="L265" s="4"/>
     </row>
-    <row r="266">
+    <row r="266" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="K266" s="4"/>
       <c r="L266" s="4"/>
     </row>
-    <row r="267">
+    <row r="267" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="K267" s="4"/>
       <c r="L267" s="4"/>
     </row>
-    <row r="268">
+    <row r="268" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="K268" s="4"/>
       <c r="L268" s="4"/>
     </row>
-    <row r="269">
+    <row r="269" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="K269" s="4"/>
       <c r="L269" s="4"/>
     </row>
-    <row r="270">
+    <row r="270" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="K270" s="4"/>
       <c r="L270" s="4"/>
     </row>
-    <row r="271">
+    <row r="271" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="K271" s="4"/>
       <c r="L271" s="4"/>
     </row>
-    <row r="272">
+    <row r="272" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="K272" s="4"/>
       <c r="L272" s="4"/>
     </row>
-    <row r="273">
+    <row r="273" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="K273" s="4"/>
       <c r="L273" s="4"/>
     </row>
-    <row r="274">
+    <row r="274" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="K274" s="4"/>
       <c r="L274" s="4"/>
     </row>
-    <row r="275">
+    <row r="275" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="K275" s="4"/>
       <c r="L275" s="4"/>
     </row>
-    <row r="276">
+    <row r="276" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="K276" s="4"/>
       <c r="L276" s="4"/>
     </row>
-    <row r="277">
+    <row r="277" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="K277" s="4"/>
       <c r="L277" s="4"/>
     </row>
-    <row r="278">
+    <row r="278" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="K278" s="4"/>
       <c r="L278" s="4"/>
     </row>
-    <row r="279">
+    <row r="279" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="K279" s="4"/>
       <c r="L279" s="4"/>
     </row>
-    <row r="280">
+    <row r="280" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="K280" s="4"/>
       <c r="L280" s="4"/>
     </row>
-    <row r="281">
+    <row r="281" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="K281" s="4"/>
       <c r="L281" s="4"/>
     </row>
-    <row r="282">
+    <row r="282" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="K282" s="4"/>
       <c r="L282" s="4"/>
     </row>
-    <row r="283">
+    <row r="283" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="K283" s="4"/>
       <c r="L283" s="4"/>
     </row>
-    <row r="284">
+    <row r="284" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="K284" s="4"/>
       <c r="L284" s="4"/>
     </row>
-    <row r="285">
+    <row r="285" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="K285" s="4"/>
       <c r="L285" s="4"/>
     </row>
-    <row r="286">
+    <row r="286" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="K286" s="4"/>
       <c r="L286" s="4"/>
     </row>
-    <row r="287">
+    <row r="287" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="K287" s="4"/>
       <c r="L287" s="4"/>
     </row>
-    <row r="288">
+    <row r="288" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="K288" s="4"/>
       <c r="L288" s="4"/>
     </row>
-    <row r="289">
+    <row r="289" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="K289" s="4"/>
       <c r="L289" s="4"/>
     </row>
-    <row r="290">
+    <row r="290" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="K290" s="4"/>
       <c r="L290" s="4"/>
     </row>
-    <row r="291">
+    <row r="291" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="K291" s="4"/>
       <c r="L291" s="4"/>
     </row>
-    <row r="292">
+    <row r="292" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="K292" s="4"/>
       <c r="L292" s="4"/>
     </row>
-    <row r="293">
+    <row r="293" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="K293" s="4"/>
       <c r="L293" s="4"/>
     </row>
-    <row r="294">
+    <row r="294" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="K294" s="4"/>
       <c r="L294" s="4"/>
     </row>
-    <row r="295">
+    <row r="295" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="K295" s="4"/>
       <c r="L295" s="4"/>
     </row>
-    <row r="296">
+    <row r="296" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="K296" s="4"/>
       <c r="L296" s="4"/>
     </row>
-    <row r="297">
+    <row r="297" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="K297" s="4"/>
       <c r="L297" s="4"/>
     </row>
-    <row r="298">
+    <row r="298" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="K298" s="4"/>
       <c r="L298" s="4"/>
     </row>
-    <row r="299">
+    <row r="299" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="K299" s="4"/>
       <c r="L299" s="4"/>
     </row>
-    <row r="300">
+    <row r="300" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="K300" s="4"/>
       <c r="L300" s="4"/>
     </row>
-    <row r="301">
+    <row r="301" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="K301" s="4"/>
       <c r="L301" s="4"/>
     </row>
-    <row r="302">
+    <row r="302" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="K302" s="4"/>
       <c r="L302" s="4"/>
     </row>
-    <row r="303">
+    <row r="303" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="K303" s="4"/>
       <c r="L303" s="4"/>
     </row>
-    <row r="304">
+    <row r="304" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="K304" s="4"/>
       <c r="L304" s="4"/>
     </row>
-    <row r="305">
+    <row r="305" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="K305" s="4"/>
       <c r="L305" s="4"/>
     </row>
-    <row r="306">
+    <row r="306" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="K306" s="4"/>
       <c r="L306" s="4"/>
     </row>
-    <row r="307">
+    <row r="307" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="K307" s="4"/>
       <c r="L307" s="4"/>
     </row>
-    <row r="308">
+    <row r="308" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="K308" s="4"/>
       <c r="L308" s="4"/>
     </row>
-    <row r="309">
+    <row r="309" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="K309" s="4"/>
       <c r="L309" s="4"/>
     </row>
-    <row r="310">
+    <row r="310" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="K310" s="4"/>
       <c r="L310" s="4"/>
     </row>
-    <row r="311">
+    <row r="311" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="K311" s="4"/>
       <c r="L311" s="4"/>
     </row>
-    <row r="312">
+    <row r="312" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="K312" s="4"/>
       <c r="L312" s="4"/>
     </row>
-    <row r="313">
+    <row r="313" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="K313" s="4"/>
       <c r="L313" s="4"/>
     </row>
-    <row r="314">
+    <row r="314" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="K314" s="4"/>
       <c r="L314" s="4"/>
     </row>
-    <row r="315">
+    <row r="315" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="K315" s="4"/>
       <c r="L315" s="4"/>
     </row>
-    <row r="316">
+    <row r="316" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="K316" s="4"/>
       <c r="L316" s="4"/>
     </row>
-    <row r="317">
+    <row r="317" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="K317" s="4"/>
       <c r="L317" s="4"/>
     </row>
-    <row r="318">
+    <row r="318" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="K318" s="4"/>
       <c r="L318" s="4"/>
     </row>
-    <row r="319">
+    <row r="319" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="K319" s="4"/>
       <c r="L319" s="4"/>
     </row>
-    <row r="320">
+    <row r="320" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="K320" s="4"/>
       <c r="L320" s="4"/>
     </row>
-    <row r="321">
+    <row r="321" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="K321" s="4"/>
       <c r="L321" s="4"/>
     </row>
-    <row r="322">
+    <row r="322" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="K322" s="4"/>
       <c r="L322" s="4"/>
     </row>
-    <row r="323">
+    <row r="323" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="K323" s="4"/>
       <c r="L323" s="4"/>
     </row>
-    <row r="324">
+    <row r="324" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="K324" s="4"/>
       <c r="L324" s="4"/>
     </row>
-    <row r="325">
+    <row r="325" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="K325" s="4"/>
       <c r="L325" s="4"/>
     </row>
-    <row r="326">
+    <row r="326" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="K326" s="4"/>
       <c r="L326" s="4"/>
     </row>
-    <row r="327">
+    <row r="327" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="K327" s="4"/>
       <c r="L327" s="4"/>
     </row>
-    <row r="328">
+    <row r="328" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="K328" s="4"/>
       <c r="L328" s="4"/>
     </row>
-    <row r="329">
+    <row r="329" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="K329" s="4"/>
       <c r="L329" s="4"/>
     </row>
-    <row r="330">
+    <row r="330" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="K330" s="4"/>
       <c r="L330" s="4"/>
     </row>
-    <row r="331">
+    <row r="331" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="K331" s="4"/>
       <c r="L331" s="4"/>
     </row>
-    <row r="332">
+    <row r="332" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="K332" s="4"/>
       <c r="L332" s="4"/>
     </row>
-    <row r="333">
+    <row r="333" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="K333" s="4"/>
       <c r="L333" s="4"/>
     </row>
-    <row r="334">
+    <row r="334" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="K334" s="4"/>
       <c r="L334" s="4"/>
     </row>
-    <row r="335">
+    <row r="335" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="K335" s="4"/>
       <c r="L335" s="4"/>
     </row>
-    <row r="336">
+    <row r="336" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="K336" s="4"/>
       <c r="L336" s="4"/>
     </row>
-    <row r="337">
+    <row r="337" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="K337" s="4"/>
       <c r="L337" s="4"/>
     </row>
-    <row r="338">
+    <row r="338" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="K338" s="4"/>
       <c r="L338" s="4"/>
     </row>
-    <row r="339">
+    <row r="339" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="K339" s="4"/>
       <c r="L339" s="4"/>
     </row>
-    <row r="340">
+    <row r="340" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="K340" s="4"/>
       <c r="L340" s="4"/>
     </row>
-    <row r="341">
+    <row r="341" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="K341" s="4"/>
       <c r="L341" s="4"/>
     </row>
-    <row r="342">
+    <row r="342" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="K342" s="4"/>
       <c r="L342" s="4"/>
     </row>
-    <row r="343">
+    <row r="343" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="K343" s="4"/>
       <c r="L343" s="4"/>
     </row>
-    <row r="344">
+    <row r="344" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="K344" s="4"/>
       <c r="L344" s="4"/>
     </row>
-    <row r="345">
+    <row r="345" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="K345" s="4"/>
       <c r="L345" s="4"/>
     </row>
-    <row r="346">
+    <row r="346" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="K346" s="4"/>
       <c r="L346" s="4"/>
     </row>
-    <row r="347">
+    <row r="347" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="K347" s="4"/>
       <c r="L347" s="4"/>
     </row>
-    <row r="348">
+    <row r="348" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="K348" s="4"/>
       <c r="L348" s="4"/>
     </row>
-    <row r="349">
+    <row r="349" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="K349" s="4"/>
       <c r="L349" s="4"/>
     </row>
-    <row r="350">
+    <row r="350" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="K350" s="4"/>
       <c r="L350" s="4"/>
     </row>
-    <row r="351">
+    <row r="351" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="K351" s="4"/>
       <c r="L351" s="4"/>
     </row>
-    <row r="352">
+    <row r="352" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="K352" s="4"/>
       <c r="L352" s="4"/>
     </row>
-    <row r="353">
+    <row r="353" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="K353" s="4"/>
       <c r="L353" s="4"/>
     </row>
-    <row r="354">
+    <row r="354" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="K354" s="4"/>
       <c r="L354" s="4"/>
     </row>
-    <row r="355">
+    <row r="355" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="K355" s="4"/>
       <c r="L355" s="4"/>
     </row>
-    <row r="356">
+    <row r="356" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="K356" s="4"/>
       <c r="L356" s="4"/>
     </row>
-    <row r="357">
+    <row r="357" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="K357" s="4"/>
       <c r="L357" s="4"/>
     </row>
-    <row r="358">
+    <row r="358" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="K358" s="4"/>
       <c r="L358" s="4"/>
     </row>
-    <row r="359">
+    <row r="359" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="K359" s="4"/>
       <c r="L359" s="4"/>
     </row>
-    <row r="360">
+    <row r="360" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="K360" s="4"/>
       <c r="L360" s="4"/>
     </row>
-    <row r="361">
+    <row r="361" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="K361" s="4"/>
       <c r="L361" s="4"/>
     </row>
-    <row r="362">
+    <row r="362" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="K362" s="4"/>
       <c r="L362" s="4"/>
     </row>
-    <row r="363">
+    <row r="363" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="K363" s="4"/>
       <c r="L363" s="4"/>
     </row>
-    <row r="364">
+    <row r="364" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="K364" s="4"/>
       <c r="L364" s="4"/>
     </row>
-    <row r="365">
+    <row r="365" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="K365" s="4"/>
       <c r="L365" s="4"/>
     </row>
-    <row r="366">
+    <row r="366" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="K366" s="4"/>
       <c r="L366" s="4"/>
     </row>
-    <row r="367">
+    <row r="367" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="K367" s="4"/>
       <c r="L367" s="4"/>
     </row>
-    <row r="368">
+    <row r="368" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="K368" s="4"/>
       <c r="L368" s="4"/>
     </row>
-    <row r="369">
+    <row r="369" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="K369" s="4"/>
       <c r="L369" s="4"/>
     </row>
-    <row r="370">
+    <row r="370" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="K370" s="4"/>
       <c r="L370" s="4"/>
     </row>
-    <row r="371">
+    <row r="371" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="K371" s="4"/>
       <c r="L371" s="4"/>
     </row>
-    <row r="372">
+    <row r="372" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="K372" s="4"/>
       <c r="L372" s="4"/>
     </row>
-    <row r="373">
+    <row r="373" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="K373" s="4"/>
       <c r="L373" s="4"/>
     </row>
-    <row r="374">
+    <row r="374" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="K374" s="4"/>
       <c r="L374" s="4"/>
     </row>
-    <row r="375">
+    <row r="375" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="K375" s="4"/>
       <c r="L375" s="4"/>
     </row>
-    <row r="376">
+    <row r="376" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="K376" s="4"/>
       <c r="L376" s="4"/>
     </row>
-    <row r="377">
+    <row r="377" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="K377" s="4"/>
       <c r="L377" s="4"/>
     </row>
-    <row r="378">
+    <row r="378" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="K378" s="4"/>
       <c r="L378" s="4"/>
     </row>
-    <row r="379">
+    <row r="379" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="K379" s="4"/>
       <c r="L379" s="4"/>
     </row>
-    <row r="380">
+    <row r="380" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="K380" s="4"/>
       <c r="L380" s="4"/>
     </row>
-    <row r="381">
+    <row r="381" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="K381" s="4"/>
       <c r="L381" s="4"/>
     </row>
-    <row r="382">
+    <row r="382" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="K382" s="4"/>
       <c r="L382" s="4"/>
     </row>
-    <row r="383">
+    <row r="383" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="K383" s="4"/>
       <c r="L383" s="4"/>
     </row>
-    <row r="384">
+    <row r="384" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="K384" s="4"/>
       <c r="L384" s="4"/>
     </row>
-    <row r="385">
+    <row r="385" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="K385" s="4"/>
       <c r="L385" s="4"/>
     </row>
-    <row r="386">
+    <row r="386" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="K386" s="4"/>
       <c r="L386" s="4"/>
     </row>
-    <row r="387">
+    <row r="387" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="K387" s="4"/>
       <c r="L387" s="4"/>
     </row>
-    <row r="388">
+    <row r="388" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="K388" s="4"/>
       <c r="L388" s="4"/>
     </row>
-    <row r="389">
+    <row r="389" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="K389" s="4"/>
       <c r="L389" s="4"/>
     </row>
-    <row r="390">
+    <row r="390" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="K390" s="4"/>
       <c r="L390" s="4"/>
     </row>
-    <row r="391">
+    <row r="391" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="K391" s="4"/>
       <c r="L391" s="4"/>
     </row>
-    <row r="392">
+    <row r="392" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="K392" s="4"/>
       <c r="L392" s="4"/>
     </row>
-    <row r="393">
+    <row r="393" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="K393" s="4"/>
       <c r="L393" s="4"/>
     </row>
-    <row r="394">
+    <row r="394" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="K394" s="4"/>
       <c r="L394" s="4"/>
     </row>
-    <row r="395">
+    <row r="395" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="K395" s="4"/>
       <c r="L395" s="4"/>
     </row>
-    <row r="396">
+    <row r="396" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="K396" s="4"/>
       <c r="L396" s="4"/>
     </row>
-    <row r="397">
+    <row r="397" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="K397" s="4"/>
       <c r="L397" s="4"/>
     </row>
-    <row r="398">
+    <row r="398" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="K398" s="4"/>
       <c r="L398" s="4"/>
     </row>
-    <row r="399">
+    <row r="399" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="K399" s="4"/>
       <c r="L399" s="4"/>
     </row>
-    <row r="400">
+    <row r="400" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="K400" s="4"/>
       <c r="L400" s="4"/>
     </row>
-    <row r="401">
+    <row r="401" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="K401" s="4"/>
       <c r="L401" s="4"/>
     </row>
-    <row r="402">
+    <row r="402" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="K402" s="4"/>
       <c r="L402" s="4"/>
     </row>
-    <row r="403">
+    <row r="403" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="K403" s="4"/>
       <c r="L403" s="4"/>
     </row>
-    <row r="404">
+    <row r="404" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="K404" s="4"/>
       <c r="L404" s="4"/>
     </row>
-    <row r="405">
+    <row r="405" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="K405" s="4"/>
       <c r="L405" s="4"/>
     </row>
-    <row r="406">
+    <row r="406" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="K406" s="4"/>
       <c r="L406" s="4"/>
     </row>
-    <row r="407">
+    <row r="407" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="K407" s="4"/>
       <c r="L407" s="4"/>
     </row>
-    <row r="408">
+    <row r="408" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="K408" s="4"/>
       <c r="L408" s="4"/>
     </row>
-    <row r="409">
+    <row r="409" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="K409" s="4"/>
       <c r="L409" s="4"/>
     </row>
-    <row r="410">
+    <row r="410" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="K410" s="4"/>
       <c r="L410" s="4"/>
     </row>
-    <row r="411">
+    <row r="411" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="K411" s="4"/>
       <c r="L411" s="4"/>
     </row>
-    <row r="412">
+    <row r="412" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="K412" s="4"/>
       <c r="L412" s="4"/>
     </row>
-    <row r="413">
+    <row r="413" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="K413" s="4"/>
       <c r="L413" s="4"/>
     </row>
-    <row r="414">
+    <row r="414" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="K414" s="4"/>
       <c r="L414" s="4"/>
     </row>
-    <row r="415">
+    <row r="415" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="K415" s="4"/>
       <c r="L415" s="4"/>
     </row>
-    <row r="416">
+    <row r="416" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="K416" s="4"/>
       <c r="L416" s="4"/>
     </row>
-    <row r="417">
+    <row r="417" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="K417" s="4"/>
       <c r="L417" s="4"/>
     </row>
-    <row r="418">
+    <row r="418" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="K418" s="4"/>
       <c r="L418" s="4"/>
     </row>
-    <row r="419">
+    <row r="419" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="K419" s="4"/>
       <c r="L419" s="4"/>
     </row>
-    <row r="420">
+    <row r="420" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="K420" s="4"/>
       <c r="L420" s="4"/>
     </row>
-    <row r="421">
+    <row r="421" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="K421" s="4"/>
       <c r="L421" s="4"/>
     </row>
-    <row r="422">
+    <row r="422" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="K422" s="4"/>
       <c r="L422" s="4"/>
     </row>
-    <row r="423">
+    <row r="423" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="K423" s="4"/>
       <c r="L423" s="4"/>
     </row>
-    <row r="424">
+    <row r="424" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="K424" s="4"/>
       <c r="L424" s="4"/>
     </row>
-    <row r="425">
+    <row r="425" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="K425" s="4"/>
       <c r="L425" s="4"/>
     </row>
-    <row r="426">
+    <row r="426" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="K426" s="4"/>
       <c r="L426" s="4"/>
     </row>
-    <row r="427">
+    <row r="427" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="K427" s="4"/>
       <c r="L427" s="4"/>
     </row>
-    <row r="428">
+    <row r="428" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="K428" s="4"/>
       <c r="L428" s="4"/>
     </row>
-    <row r="429">
+    <row r="429" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="K429" s="4"/>
       <c r="L429" s="4"/>
     </row>
-    <row r="430">
+    <row r="430" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="K430" s="4"/>
       <c r="L430" s="4"/>
     </row>
-    <row r="431">
+    <row r="431" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="K431" s="4"/>
       <c r="L431" s="4"/>
     </row>
-    <row r="432">
+    <row r="432" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="K432" s="4"/>
       <c r="L432" s="4"/>
     </row>
-    <row r="433">
+    <row r="433" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="K433" s="4"/>
       <c r="L433" s="4"/>
     </row>
-    <row r="434">
+    <row r="434" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="K434" s="4"/>
       <c r="L434" s="4"/>
     </row>
-    <row r="435">
+    <row r="435" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="K435" s="4"/>
       <c r="L435" s="4"/>
     </row>
-    <row r="436">
+    <row r="436" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="K436" s="4"/>
       <c r="L436" s="4"/>
     </row>
-    <row r="437">
+    <row r="437" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="K437" s="4"/>
       <c r="L437" s="4"/>
     </row>
-    <row r="438">
+    <row r="438" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="K438" s="4"/>
       <c r="L438" s="4"/>
     </row>
-    <row r="439">
+    <row r="439" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="K439" s="4"/>
       <c r="L439" s="4"/>
     </row>
-    <row r="440">
+    <row r="440" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="K440" s="4"/>
       <c r="L440" s="4"/>
     </row>
-    <row r="441">
+    <row r="441" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="K441" s="4"/>
       <c r="L441" s="4"/>
     </row>
-    <row r="442">
+    <row r="442" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="K442" s="4"/>
       <c r="L442" s="4"/>
     </row>
-    <row r="443">
+    <row r="443" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="K443" s="4"/>
       <c r="L443" s="4"/>
     </row>
-    <row r="444">
+    <row r="444" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="K444" s="4"/>
       <c r="L444" s="4"/>
     </row>
-    <row r="445">
+    <row r="445" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="K445" s="4"/>
       <c r="L445" s="4"/>
     </row>
-    <row r="446">
+    <row r="446" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="K446" s="4"/>
       <c r="L446" s="4"/>
     </row>
-    <row r="447">
+    <row r="447" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="K447" s="4"/>
       <c r="L447" s="4"/>
     </row>
-    <row r="448">
+    <row r="448" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="K448" s="4"/>
       <c r="L448" s="4"/>
     </row>
-    <row r="449">
+    <row r="449" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="K449" s="4"/>
       <c r="L449" s="4"/>
     </row>
-    <row r="450">
+    <row r="450" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="K450" s="4"/>
       <c r="L450" s="4"/>
     </row>
-    <row r="451">
+    <row r="451" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="K451" s="4"/>
       <c r="L451" s="4"/>
     </row>
-    <row r="452">
+    <row r="452" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="K452" s="4"/>
       <c r="L452" s="4"/>
     </row>
-    <row r="453">
+    <row r="453" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="K453" s="4"/>
       <c r="L453" s="4"/>
     </row>
-    <row r="454">
+    <row r="454" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="K454" s="4"/>
       <c r="L454" s="4"/>
     </row>
-    <row r="455">
+    <row r="455" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="K455" s="4"/>
       <c r="L455" s="4"/>
     </row>
-    <row r="456">
+    <row r="456" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="K456" s="4"/>
       <c r="L456" s="4"/>
     </row>
-    <row r="457">
+    <row r="457" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="K457" s="4"/>
       <c r="L457" s="4"/>
     </row>
-    <row r="458">
+    <row r="458" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="K458" s="4"/>
       <c r="L458" s="4"/>
     </row>
-    <row r="459">
+    <row r="459" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="K459" s="4"/>
       <c r="L459" s="4"/>
     </row>
-    <row r="460">
+    <row r="460" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="K460" s="4"/>
       <c r="L460" s="4"/>
     </row>
-    <row r="461">
+    <row r="461" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="K461" s="4"/>
       <c r="L461" s="4"/>
     </row>
-    <row r="462">
+    <row r="462" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="K462" s="4"/>
       <c r="L462" s="4"/>
     </row>
-    <row r="463">
+    <row r="463" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="K463" s="4"/>
       <c r="L463" s="4"/>
     </row>
-    <row r="464">
+    <row r="464" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="K464" s="4"/>
       <c r="L464" s="4"/>
     </row>
-    <row r="465">
+    <row r="465" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="K465" s="4"/>
       <c r="L465" s="4"/>
     </row>
-    <row r="466">
+    <row r="466" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="K466" s="4"/>
       <c r="L466" s="4"/>
     </row>
-    <row r="467">
+    <row r="467" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="K467" s="4"/>
       <c r="L467" s="4"/>
     </row>
-    <row r="468">
+    <row r="468" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="K468" s="4"/>
       <c r="L468" s="4"/>
     </row>
-    <row r="469">
+    <row r="469" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="K469" s="4"/>
       <c r="L469" s="4"/>
     </row>
-    <row r="470">
+    <row r="470" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="K470" s="4"/>
       <c r="L470" s="4"/>
     </row>
-    <row r="471">
+    <row r="471" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="K471" s="4"/>
       <c r="L471" s="4"/>
     </row>
-    <row r="472">
+    <row r="472" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="K472" s="4"/>
       <c r="L472" s="4"/>
     </row>
-    <row r="473">
+    <row r="473" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="K473" s="4"/>
       <c r="L473" s="4"/>
     </row>
-    <row r="474">
+    <row r="474" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="K474" s="4"/>
       <c r="L474" s="4"/>
     </row>
-    <row r="475">
+    <row r="475" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="K475" s="4"/>
       <c r="L475" s="4"/>
     </row>
-    <row r="476">
+    <row r="476" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="K476" s="4"/>
       <c r="L476" s="4"/>
     </row>
-    <row r="477">
+    <row r="477" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="K477" s="4"/>
       <c r="L477" s="4"/>
     </row>
-    <row r="478">
+    <row r="478" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="K478" s="4"/>
       <c r="L478" s="4"/>
     </row>
-    <row r="479">
+    <row r="479" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="K479" s="4"/>
       <c r="L479" s="4"/>
     </row>
-    <row r="480">
+    <row r="480" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="K480" s="4"/>
       <c r="L480" s="4"/>
     </row>
-    <row r="481">
+    <row r="481" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="K481" s="4"/>
       <c r="L481" s="4"/>
     </row>
-    <row r="482">
+    <row r="482" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="K482" s="4"/>
       <c r="L482" s="4"/>
     </row>
-    <row r="483">
+    <row r="483" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="K483" s="4"/>
       <c r="L483" s="4"/>
     </row>
-    <row r="484">
+    <row r="484" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
     </row>
-    <row r="485">
+    <row r="485" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="K485" s="4"/>
       <c r="L485" s="4"/>
     </row>
-    <row r="486">
+    <row r="486" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="K486" s="4"/>
       <c r="L486" s="4"/>
     </row>
-    <row r="487">
+    <row r="487" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="K487" s="4"/>
       <c r="L487" s="4"/>
     </row>
-    <row r="488">
+    <row r="488" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="K488" s="4"/>
       <c r="L488" s="4"/>
     </row>
-    <row r="489">
+    <row r="489" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="K489" s="4"/>
       <c r="L489" s="4"/>
     </row>
-    <row r="490">
+    <row r="490" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="K490" s="4"/>
       <c r="L490" s="4"/>
     </row>
-    <row r="491">
+    <row r="491" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="K491" s="4"/>
       <c r="L491" s="4"/>
     </row>
-    <row r="492">
+    <row r="492" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="K492" s="4"/>
       <c r="L492" s="4"/>
     </row>
-    <row r="493">
+    <row r="493" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="K493" s="4"/>
       <c r="L493" s="4"/>
     </row>
-    <row r="494">
+    <row r="494" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="K494" s="4"/>
       <c r="L494" s="4"/>
     </row>
-    <row r="495">
+    <row r="495" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="K495" s="4"/>
       <c r="L495" s="4"/>
     </row>
-    <row r="496">
+    <row r="496" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
     </row>
-    <row r="497">
+    <row r="497" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="K497" s="4"/>
       <c r="L497" s="4"/>
     </row>
-    <row r="498">
+    <row r="498" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="K498" s="4"/>
       <c r="L498" s="4"/>
     </row>
-    <row r="499">
+    <row r="499" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="K499" s="4"/>
       <c r="L499" s="4"/>
     </row>
-    <row r="500">
+    <row r="500" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="K500" s="4"/>
       <c r="L500" s="4"/>
     </row>
-    <row r="501">
+    <row r="501" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="K501" s="4"/>
       <c r="L501" s="4"/>
     </row>
-    <row r="502">
+    <row r="502" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="K502" s="4"/>
       <c r="L502" s="4"/>
     </row>
-    <row r="503">
+    <row r="503" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="K503" s="4"/>
       <c r="L503" s="4"/>
     </row>
-    <row r="504">
+    <row r="504" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="K504" s="4"/>
       <c r="L504" s="4"/>
     </row>
-    <row r="505">
+    <row r="505" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="K505" s="4"/>
       <c r="L505" s="4"/>
     </row>
-    <row r="506">
+    <row r="506" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="K506" s="4"/>
       <c r="L506" s="4"/>
     </row>
-    <row r="507">
+    <row r="507" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="K507" s="4"/>
       <c r="L507" s="4"/>
     </row>
-    <row r="508">
+    <row r="508" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="K508" s="4"/>
       <c r="L508" s="4"/>
     </row>
-    <row r="509">
+    <row r="509" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="K509" s="4"/>
       <c r="L509" s="4"/>
     </row>
-    <row r="510">
+    <row r="510" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="K510" s="4"/>
       <c r="L510" s="4"/>
     </row>
-    <row r="511">
+    <row r="511" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="K511" s="4"/>
       <c r="L511" s="4"/>
     </row>
-    <row r="512">
+    <row r="512" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="K512" s="4"/>
       <c r="L512" s="4"/>
     </row>
-    <row r="513">
+    <row r="513" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="K513" s="4"/>
       <c r="L513" s="4"/>
     </row>
-    <row r="514">
+    <row r="514" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="K514" s="4"/>
       <c r="L514" s="4"/>
     </row>
-    <row r="515">
+    <row r="515" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="K515" s="4"/>
       <c r="L515" s="4"/>
     </row>
-    <row r="516">
+    <row r="516" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="K516" s="4"/>
       <c r="L516" s="4"/>
     </row>
-    <row r="517">
+    <row r="517" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="K517" s="4"/>
       <c r="L517" s="4"/>
     </row>
-    <row r="518">
+    <row r="518" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="K518" s="4"/>
       <c r="L518" s="4"/>
     </row>
-    <row r="519">
+    <row r="519" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="K519" s="4"/>
       <c r="L519" s="4"/>
     </row>
-    <row r="520">
+    <row r="520" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="K520" s="4"/>
       <c r="L520" s="4"/>
     </row>
-    <row r="521">
+    <row r="521" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="K521" s="4"/>
       <c r="L521" s="4"/>
     </row>
-    <row r="522">
+    <row r="522" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="K522" s="4"/>
       <c r="L522" s="4"/>
     </row>
-    <row r="523">
+    <row r="523" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="K523" s="4"/>
       <c r="L523" s="4"/>
     </row>
-    <row r="524">
+    <row r="524" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="K524" s="4"/>
       <c r="L524" s="4"/>
     </row>
-    <row r="525">
+    <row r="525" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="K525" s="4"/>
       <c r="L525" s="4"/>
     </row>
-    <row r="526">
+    <row r="526" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="K526" s="4"/>
       <c r="L526" s="4"/>
     </row>
-    <row r="527">
+    <row r="527" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="K527" s="4"/>
       <c r="L527" s="4"/>
     </row>
-    <row r="528">
+    <row r="528" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="K528" s="4"/>
       <c r="L528" s="4"/>
     </row>
-    <row r="529">
+    <row r="529" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="K529" s="4"/>
       <c r="L529" s="4"/>
     </row>
-    <row r="530">
+    <row r="530" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="K530" s="4"/>
       <c r="L530" s="4"/>
     </row>
-    <row r="531">
+    <row r="531" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="K531" s="4"/>
       <c r="L531" s="4"/>
     </row>
-    <row r="532">
+    <row r="532" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="K532" s="4"/>
       <c r="L532" s="4"/>
     </row>
-    <row r="533">
+    <row r="533" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="K533" s="4"/>
       <c r="L533" s="4"/>
     </row>
-    <row r="534">
+    <row r="534" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="K534" s="4"/>
       <c r="L534" s="4"/>
     </row>
-    <row r="535">
+    <row r="535" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="K535" s="4"/>
       <c r="L535" s="4"/>
     </row>
-    <row r="536">
+    <row r="536" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="K536" s="4"/>
       <c r="L536" s="4"/>
     </row>
-    <row r="537">
+    <row r="537" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="K537" s="4"/>
       <c r="L537" s="4"/>
     </row>
-    <row r="538">
+    <row r="538" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="K538" s="4"/>
       <c r="L538" s="4"/>
     </row>
-    <row r="539">
+    <row r="539" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="K539" s="4"/>
       <c r="L539" s="4"/>
     </row>
-    <row r="540">
+    <row r="540" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="K540" s="4"/>
       <c r="L540" s="4"/>
     </row>
-    <row r="541">
+    <row r="541" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="K541" s="4"/>
       <c r="L541" s="4"/>
     </row>
-    <row r="542">
+    <row r="542" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="K542" s="4"/>
       <c r="L542" s="4"/>
     </row>
-    <row r="543">
+    <row r="543" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="K543" s="4"/>
       <c r="L543" s="4"/>
     </row>
-    <row r="544">
+    <row r="544" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="K544" s="4"/>
       <c r="L544" s="4"/>
     </row>
-    <row r="545">
+    <row r="545" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="K545" s="4"/>
       <c r="L545" s="4"/>
     </row>
-    <row r="546">
+    <row r="546" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="K546" s="4"/>
       <c r="L546" s="4"/>
     </row>
-    <row r="547">
+    <row r="547" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="K547" s="4"/>
       <c r="L547" s="4"/>
     </row>
-    <row r="548">
+    <row r="548" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="K548" s="4"/>
       <c r="L548" s="4"/>
     </row>
-    <row r="549">
+    <row r="549" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="K549" s="4"/>
       <c r="L549" s="4"/>
     </row>
-    <row r="550">
+    <row r="550" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="K550" s="4"/>
       <c r="L550" s="4"/>
     </row>
-    <row r="551">
+    <row r="551" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="K551" s="4"/>
       <c r="L551" s="4"/>
     </row>
-    <row r="552">
+    <row r="552" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="K552" s="4"/>
       <c r="L552" s="4"/>
     </row>
-    <row r="553">
+    <row r="553" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="K553" s="4"/>
       <c r="L553" s="4"/>
     </row>
-    <row r="554">
+    <row r="554" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="K554" s="4"/>
       <c r="L554" s="4"/>
     </row>
-    <row r="555">
+    <row r="555" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="K555" s="4"/>
       <c r="L555" s="4"/>
     </row>
-    <row r="556">
+    <row r="556" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="K556" s="4"/>
       <c r="L556" s="4"/>
     </row>
-    <row r="557">
+    <row r="557" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="K557" s="4"/>
       <c r="L557" s="4"/>
     </row>
-    <row r="558">
+    <row r="558" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="K558" s="4"/>
       <c r="L558" s="4"/>
     </row>
-    <row r="559">
+    <row r="559" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="K559" s="4"/>
       <c r="L559" s="4"/>
     </row>
-    <row r="560">
+    <row r="560" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="K560" s="4"/>
       <c r="L560" s="4"/>
     </row>
-    <row r="561">
+    <row r="561" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="K561" s="4"/>
       <c r="L561" s="4"/>
     </row>
-    <row r="562">
+    <row r="562" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="K562" s="4"/>
       <c r="L562" s="4"/>
     </row>
-    <row r="563">
+    <row r="563" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="K563" s="4"/>
       <c r="L563" s="4"/>
     </row>
-    <row r="564">
+    <row r="564" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="K564" s="4"/>
       <c r="L564" s="4"/>
     </row>
-    <row r="565">
+    <row r="565" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
       <c r="K565" s="4"/>
       <c r="L565" s="4"/>
     </row>
-    <row r="566">
+    <row r="566" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
       <c r="K566" s="4"/>
       <c r="L566" s="4"/>
     </row>
-    <row r="567">
+    <row r="567" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
       <c r="K567" s="4"/>
       <c r="L567" s="4"/>
     </row>
-    <row r="568">
+    <row r="568" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
       <c r="K568" s="4"/>
       <c r="L568" s="4"/>
     </row>
-    <row r="569">
+    <row r="569" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
       <c r="K569" s="4"/>
       <c r="L569" s="4"/>
     </row>
-    <row r="570">
+    <row r="570" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
       <c r="K570" s="4"/>
       <c r="L570" s="4"/>
     </row>
-    <row r="571">
+    <row r="571" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
       <c r="K571" s="4"/>
       <c r="L571" s="4"/>
     </row>
-    <row r="572">
+    <row r="572" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
       <c r="K572" s="4"/>
       <c r="L572" s="4"/>
     </row>
-    <row r="573">
+    <row r="573" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
       <c r="K573" s="4"/>
       <c r="L573" s="4"/>
     </row>
-    <row r="574">
+    <row r="574" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
       <c r="K574" s="4"/>
       <c r="L574" s="4"/>
     </row>
-    <row r="575">
+    <row r="575" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
       <c r="K575" s="4"/>
       <c r="L575" s="4"/>
     </row>
-    <row r="576">
+    <row r="576" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
       <c r="K576" s="4"/>
       <c r="L576" s="4"/>
     </row>
-    <row r="577">
+    <row r="577" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
       <c r="K577" s="4"/>
       <c r="L577" s="4"/>
     </row>
-    <row r="578">
+    <row r="578" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
       <c r="K578" s="4"/>
       <c r="L578" s="4"/>
     </row>
-    <row r="579">
+    <row r="579" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
       <c r="K579" s="4"/>
       <c r="L579" s="4"/>
     </row>
-    <row r="580">
+    <row r="580" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
       <c r="K580" s="4"/>
       <c r="L580" s="4"/>
     </row>
-    <row r="581">
+    <row r="581" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
       <c r="K581" s="4"/>
       <c r="L581" s="4"/>
     </row>
-    <row r="582">
+    <row r="582" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
       <c r="K582" s="4"/>
       <c r="L582" s="4"/>
     </row>
-    <row r="583">
+    <row r="583" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
       <c r="K583" s="4"/>
       <c r="L583" s="4"/>
     </row>
-    <row r="584">
+    <row r="584" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
       <c r="K584" s="4"/>
       <c r="L584" s="4"/>
     </row>
-    <row r="585">
+    <row r="585" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
       <c r="K585" s="4"/>
       <c r="L585" s="4"/>
     </row>
-    <row r="586">
+    <row r="586" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
       <c r="K586" s="4"/>
       <c r="L586" s="4"/>
     </row>
-    <row r="587">
+    <row r="587" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
       <c r="K587" s="4"/>
       <c r="L587" s="4"/>
     </row>
-    <row r="588">
+    <row r="588" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
       <c r="K588" s="4"/>
       <c r="L588" s="4"/>
     </row>
-    <row r="589">
+    <row r="589" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
       <c r="K589" s="4"/>
       <c r="L589" s="4"/>
     </row>
-    <row r="590">
+    <row r="590" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
       <c r="K590" s="4"/>
       <c r="L590" s="4"/>
     </row>
-    <row r="591">
+    <row r="591" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
       <c r="K591" s="4"/>
       <c r="L591" s="4"/>
     </row>
-    <row r="592">
+    <row r="592" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
       <c r="K592" s="4"/>
       <c r="L592" s="4"/>
     </row>
-    <row r="593">
+    <row r="593" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
       <c r="K593" s="4"/>
       <c r="L593" s="4"/>
     </row>
-    <row r="594">
+    <row r="594" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
       <c r="K594" s="4"/>
       <c r="L594" s="4"/>
     </row>
-    <row r="595">
+    <row r="595" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
       <c r="K595" s="4"/>
       <c r="L595" s="4"/>
     </row>
-    <row r="596">
+    <row r="596" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
       <c r="K596" s="4"/>
       <c r="L596" s="4"/>
     </row>
-    <row r="597">
+    <row r="597" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
       <c r="K597" s="4"/>
       <c r="L597" s="4"/>
     </row>
-    <row r="598">
+    <row r="598" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
       <c r="K598" s="4"/>
       <c r="L598" s="4"/>
     </row>
-    <row r="599">
+    <row r="599" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
       <c r="K599" s="4"/>
       <c r="L599" s="4"/>
     </row>
-    <row r="600">
+    <row r="600" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
       <c r="K600" s="4"/>
       <c r="L600" s="4"/>
     </row>
-    <row r="601">
+    <row r="601" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
       <c r="K601" s="4"/>
       <c r="L601" s="4"/>
     </row>
-    <row r="602">
+    <row r="602" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
       <c r="K602" s="4"/>
       <c r="L602" s="4"/>
     </row>
-    <row r="603">
+    <row r="603" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
       <c r="K603" s="4"/>
       <c r="L603" s="4"/>
     </row>
-    <row r="604">
+    <row r="604" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
       <c r="K604" s="4"/>
       <c r="L604" s="4"/>
     </row>
-    <row r="605">
+    <row r="605" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
       <c r="K605" s="4"/>
       <c r="L605" s="4"/>
     </row>
-    <row r="606">
+    <row r="606" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
       <c r="K606" s="4"/>
       <c r="L606" s="4"/>
     </row>
-    <row r="607">
+    <row r="607" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
       <c r="K607" s="4"/>
       <c r="L607" s="4"/>
     </row>
-    <row r="608">
+    <row r="608" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
       <c r="K608" s="4"/>
       <c r="L608" s="4"/>
     </row>
-    <row r="609">
+    <row r="609" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
       <c r="K609" s="4"/>
       <c r="L609" s="4"/>
     </row>
-    <row r="610">
+    <row r="610" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
       <c r="K610" s="4"/>
       <c r="L610" s="4"/>
     </row>
-    <row r="611">
+    <row r="611" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
       <c r="K611" s="4"/>
       <c r="L611" s="4"/>
     </row>
-    <row r="612">
+    <row r="612" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
       <c r="K612" s="4"/>
       <c r="L612" s="4"/>
     </row>
-    <row r="613">
+    <row r="613" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
       <c r="K613" s="4"/>
       <c r="L613" s="4"/>
     </row>
-    <row r="614">
+    <row r="614" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
       <c r="K614" s="4"/>
       <c r="L614" s="4"/>
     </row>
-    <row r="615">
+    <row r="615" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
       <c r="K615" s="4"/>
       <c r="L615" s="4"/>
     </row>
-    <row r="616">
+    <row r="616" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
       <c r="K616" s="4"/>
       <c r="L616" s="4"/>
     </row>
-    <row r="617">
+    <row r="617" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
       <c r="K617" s="4"/>
       <c r="L617" s="4"/>
     </row>
-    <row r="618">
+    <row r="618" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
       <c r="K618" s="4"/>
       <c r="L618" s="4"/>
     </row>
-    <row r="619">
+    <row r="619" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
       <c r="K619" s="4"/>
       <c r="L619" s="4"/>
     </row>
-    <row r="620">
+    <row r="620" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
       <c r="K620" s="4"/>
       <c r="L620" s="4"/>
     </row>
-    <row r="621">
+    <row r="621" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
       <c r="K621" s="4"/>
       <c r="L621" s="4"/>
     </row>
-    <row r="622">
+    <row r="622" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
       <c r="K622" s="4"/>
       <c r="L622" s="4"/>
     </row>
-    <row r="623">
+    <row r="623" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
       <c r="K623" s="4"/>
       <c r="L623" s="4"/>
     </row>
-    <row r="624">
+    <row r="624" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
       <c r="K624" s="4"/>
       <c r="L624" s="4"/>
     </row>
-    <row r="625">
+    <row r="625" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
       <c r="K625" s="4"/>
       <c r="L625" s="4"/>
     </row>
-    <row r="626">
+    <row r="626" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
       <c r="K626" s="4"/>
       <c r="L626" s="4"/>
     </row>
-    <row r="627">
+    <row r="627" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
       <c r="K627" s="4"/>
       <c r="L627" s="4"/>
     </row>
-    <row r="628">
+    <row r="628" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
       <c r="K628" s="4"/>
       <c r="L628" s="4"/>
     </row>
-    <row r="629">
+    <row r="629" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
       <c r="K629" s="4"/>
       <c r="L629" s="4"/>
     </row>
-    <row r="630">
+    <row r="630" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
       <c r="K630" s="4"/>
       <c r="L630" s="4"/>
     </row>
-    <row r="631">
+    <row r="631" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
       <c r="K631" s="4"/>
       <c r="L631" s="4"/>
     </row>
-    <row r="632">
+    <row r="632" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
       <c r="K632" s="4"/>
       <c r="L632" s="4"/>
     </row>
-    <row r="633">
+    <row r="633" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
       <c r="K633" s="4"/>
       <c r="L633" s="4"/>
     </row>
-    <row r="634">
+    <row r="634" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
       <c r="K634" s="4"/>
       <c r="L634" s="4"/>
     </row>
-    <row r="635">
+    <row r="635" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
       <c r="K635" s="4"/>
       <c r="L635" s="4"/>
     </row>
-    <row r="636">
+    <row r="636" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
       <c r="K636" s="4"/>
       <c r="L636" s="4"/>
     </row>
-    <row r="637">
+    <row r="637" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
       <c r="K637" s="4"/>
       <c r="L637" s="4"/>
     </row>
-    <row r="638">
+    <row r="638" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
       <c r="K638" s="4"/>
       <c r="L638" s="4"/>
     </row>
-    <row r="639">
+    <row r="639" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
       <c r="K639" s="4"/>
       <c r="L639" s="4"/>
     </row>
-    <row r="640">
+    <row r="640" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
       <c r="K640" s="4"/>
       <c r="L640" s="4"/>
     </row>
-    <row r="641">
+    <row r="641" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
       <c r="K641" s="4"/>
       <c r="L641" s="4"/>
     </row>
-    <row r="642">
+    <row r="642" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
       <c r="K642" s="4"/>
       <c r="L642" s="4"/>
     </row>
-    <row r="643">
+    <row r="643" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
       <c r="K643" s="4"/>
       <c r="L643" s="4"/>
     </row>
-    <row r="644">
+    <row r="644" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
       <c r="K644" s="4"/>
       <c r="L644" s="4"/>
     </row>
-    <row r="645">
+    <row r="645" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
       <c r="K645" s="4"/>
       <c r="L645" s="4"/>
     </row>
-    <row r="646">
+    <row r="646" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
       <c r="K646" s="4"/>
       <c r="L646" s="4"/>
     </row>
-    <row r="647">
+    <row r="647" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
       <c r="K647" s="4"/>
       <c r="L647" s="4"/>
     </row>
-    <row r="648">
+    <row r="648" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
       <c r="K648" s="4"/>
       <c r="L648" s="4"/>
     </row>
-    <row r="649">
+    <row r="649" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
       <c r="K649" s="4"/>
       <c r="L649" s="4"/>
     </row>
-    <row r="650">
+    <row r="650" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
       <c r="K650" s="4"/>
       <c r="L650" s="4"/>
     </row>
-    <row r="651">
+    <row r="651" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
       <c r="K651" s="4"/>
       <c r="L651" s="4"/>
     </row>
-    <row r="652">
+    <row r="652" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
       <c r="K652" s="4"/>
       <c r="L652" s="4"/>
     </row>
-    <row r="653">
+    <row r="653" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
       <c r="K653" s="4"/>
       <c r="L653" s="4"/>
     </row>
-    <row r="654">
+    <row r="654" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
       <c r="K654" s="4"/>
       <c r="L654" s="4"/>
     </row>
-    <row r="655">
+    <row r="655" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
       <c r="K655" s="4"/>
       <c r="L655" s="4"/>
     </row>
-    <row r="656">
+    <row r="656" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
       <c r="K656" s="4"/>
       <c r="L656" s="4"/>
     </row>
-    <row r="657">
+    <row r="657" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
       <c r="K657" s="4"/>
       <c r="L657" s="4"/>
     </row>
-    <row r="658">
+    <row r="658" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
       <c r="K658" s="4"/>
       <c r="L658" s="4"/>
     </row>
-    <row r="659">
+    <row r="659" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
       <c r="K659" s="4"/>
       <c r="L659" s="4"/>
     </row>
-    <row r="660">
+    <row r="660" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
       <c r="K660" s="4"/>
       <c r="L660" s="4"/>
     </row>
-    <row r="661">
+    <row r="661" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
       <c r="K661" s="4"/>
       <c r="L661" s="4"/>
     </row>
-    <row r="662">
+    <row r="662" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
       <c r="K662" s="4"/>
       <c r="L662" s="4"/>
     </row>
-    <row r="663">
+    <row r="663" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
       <c r="K663" s="4"/>
       <c r="L663" s="4"/>
     </row>
-    <row r="664">
+    <row r="664" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
       <c r="K664" s="4"/>
       <c r="L664" s="4"/>
     </row>
-    <row r="665">
+    <row r="665" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
       <c r="K665" s="4"/>
       <c r="L665" s="4"/>
     </row>
-    <row r="666">
+    <row r="666" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
       <c r="K666" s="4"/>
       <c r="L666" s="4"/>
     </row>
-    <row r="667">
+    <row r="667" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
       <c r="K667" s="4"/>
       <c r="L667" s="4"/>
     </row>
-    <row r="668">
+    <row r="668" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
       <c r="K668" s="4"/>
       <c r="L668" s="4"/>
     </row>
-    <row r="669">
+    <row r="669" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
       <c r="K669" s="4"/>
       <c r="L669" s="4"/>
     </row>
-    <row r="670">
+    <row r="670" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
       <c r="K670" s="4"/>
       <c r="L670" s="4"/>
     </row>
-    <row r="671">
+    <row r="671" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
       <c r="K671" s="4"/>
       <c r="L671" s="4"/>
     </row>
-    <row r="672">
+    <row r="672" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
       <c r="K672" s="4"/>
       <c r="L672" s="4"/>
     </row>
-    <row r="673">
+    <row r="673" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
       <c r="K673" s="4"/>
       <c r="L673" s="4"/>
     </row>
-    <row r="674">
+    <row r="674" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
       <c r="K674" s="4"/>
       <c r="L674" s="4"/>
     </row>
-    <row r="675">
+    <row r="675" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
       <c r="K675" s="4"/>
       <c r="L675" s="4"/>
     </row>
-    <row r="676">
+    <row r="676" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
       <c r="K676" s="4"/>
       <c r="L676" s="4"/>
     </row>
-    <row r="677">
+    <row r="677" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
       <c r="K677" s="4"/>
       <c r="L677" s="4"/>
     </row>
-    <row r="678">
+    <row r="678" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
       <c r="K678" s="4"/>
       <c r="L678" s="4"/>
     </row>
-    <row r="679">
+    <row r="679" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
       <c r="K679" s="4"/>
       <c r="L679" s="4"/>
     </row>
-    <row r="680">
+    <row r="680" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
       <c r="K680" s="4"/>
       <c r="L680" s="4"/>
     </row>
-    <row r="681">
+    <row r="681" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
       <c r="K681" s="4"/>
       <c r="L681" s="4"/>
     </row>
-    <row r="682">
+    <row r="682" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
       <c r="K682" s="4"/>
       <c r="L682" s="4"/>
     </row>
-    <row r="683">
+    <row r="683" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
       <c r="K683" s="4"/>
       <c r="L683" s="4"/>
     </row>
-    <row r="684">
+    <row r="684" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
       <c r="K684" s="4"/>
       <c r="L684" s="4"/>
     </row>
-    <row r="685">
+    <row r="685" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
       <c r="K685" s="4"/>
       <c r="L685" s="4"/>
     </row>
-    <row r="686">
+    <row r="686" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
       <c r="K686" s="4"/>
       <c r="L686" s="4"/>
     </row>
-    <row r="687">
+    <row r="687" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
       <c r="K687" s="4"/>
       <c r="L687" s="4"/>
     </row>
-    <row r="688">
+    <row r="688" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
       <c r="K688" s="4"/>
       <c r="L688" s="4"/>
     </row>
-    <row r="689">
+    <row r="689" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
       <c r="K689" s="4"/>
       <c r="L689" s="4"/>
     </row>
-    <row r="690">
+    <row r="690" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
       <c r="K690" s="4"/>
       <c r="L690" s="4"/>
     </row>
-    <row r="691">
+    <row r="691" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
       <c r="K691" s="4"/>
       <c r="L691" s="4"/>
     </row>
-    <row r="692">
+    <row r="692" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
       <c r="K692" s="4"/>
       <c r="L692" s="4"/>
     </row>
-    <row r="693">
+    <row r="693" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
       <c r="K693" s="4"/>
       <c r="L693" s="4"/>
     </row>
-    <row r="694">
+    <row r="694" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
       <c r="K694" s="4"/>
       <c r="L694" s="4"/>
     </row>
-    <row r="695">
+    <row r="695" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
       <c r="K695" s="4"/>
       <c r="L695" s="4"/>
     </row>
-    <row r="696">
+    <row r="696" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
       <c r="K696" s="4"/>
       <c r="L696" s="4"/>
     </row>
-    <row r="697">
+    <row r="697" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
       <c r="K697" s="4"/>
       <c r="L697" s="4"/>
     </row>
-    <row r="698">
+    <row r="698" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
       <c r="K698" s="4"/>
       <c r="L698" s="4"/>
     </row>
-    <row r="699">
+    <row r="699" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
       <c r="K699" s="4"/>
       <c r="L699" s="4"/>
     </row>
-    <row r="700">
+    <row r="700" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
       <c r="K700" s="4"/>
       <c r="L700" s="4"/>
     </row>
-    <row r="701">
+    <row r="701" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
       <c r="K701" s="4"/>
       <c r="L701" s="4"/>
     </row>
-    <row r="702">
+    <row r="702" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
       <c r="K702" s="4"/>
       <c r="L702" s="4"/>
     </row>
-    <row r="703">
+    <row r="703" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
       <c r="K703" s="4"/>
       <c r="L703" s="4"/>
     </row>
-    <row r="704">
+    <row r="704" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
       <c r="K704" s="4"/>
       <c r="L704" s="4"/>
     </row>
-    <row r="705">
+    <row r="705" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
       <c r="K705" s="4"/>
       <c r="L705" s="4"/>
     </row>
-    <row r="706">
+    <row r="706" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
       <c r="K706" s="4"/>
       <c r="L706" s="4"/>
     </row>
-    <row r="707">
+    <row r="707" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
       <c r="K707" s="4"/>
       <c r="L707" s="4"/>
     </row>
-    <row r="708">
+    <row r="708" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
       <c r="K708" s="4"/>
       <c r="L708" s="4"/>
     </row>
-    <row r="709">
+    <row r="709" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
       <c r="K709" s="4"/>
       <c r="L709" s="4"/>
     </row>
-    <row r="710">
+    <row r="710" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
       <c r="K710" s="4"/>
       <c r="L710" s="4"/>
     </row>
-    <row r="711">
+    <row r="711" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
       <c r="K711" s="4"/>
       <c r="L711" s="4"/>
     </row>
-    <row r="712">
+    <row r="712" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
       <c r="K712" s="4"/>
       <c r="L712" s="4"/>
     </row>
-    <row r="713">
+    <row r="713" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
       <c r="K713" s="4"/>
       <c r="L713" s="4"/>
     </row>
-    <row r="714">
+    <row r="714" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
       <c r="K714" s="4"/>
       <c r="L714" s="4"/>
     </row>
-    <row r="715">
+    <row r="715" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
       <c r="K715" s="4"/>
       <c r="L715" s="4"/>
     </row>
-    <row r="716">
+    <row r="716" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
       <c r="K716" s="4"/>
       <c r="L716" s="4"/>
     </row>
-    <row r="717">
+    <row r="717" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
       <c r="K717" s="4"/>
       <c r="L717" s="4"/>
     </row>
-    <row r="718">
+    <row r="718" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
       <c r="K718" s="4"/>
       <c r="L718" s="4"/>
     </row>
-    <row r="719">
+    <row r="719" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
       <c r="K719" s="4"/>
       <c r="L719" s="4"/>
     </row>
-    <row r="720">
+    <row r="720" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
       <c r="K720" s="4"/>
       <c r="L720" s="4"/>
     </row>
-    <row r="721">
+    <row r="721" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
       <c r="K721" s="4"/>
       <c r="L721" s="4"/>
     </row>
-    <row r="722">
+    <row r="722" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
       <c r="K722" s="4"/>
       <c r="L722" s="4"/>
     </row>
-    <row r="723">
+    <row r="723" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
       <c r="K723" s="4"/>
       <c r="L723" s="4"/>
     </row>
-    <row r="724">
+    <row r="724" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
       <c r="K724" s="4"/>
       <c r="L724" s="4"/>
     </row>
-    <row r="725">
+    <row r="725" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
       <c r="K725" s="4"/>
       <c r="L725" s="4"/>
     </row>
-    <row r="726">
+    <row r="726" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
       <c r="K726" s="4"/>
       <c r="L726" s="4"/>
     </row>
-    <row r="727">
+    <row r="727" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
       <c r="K727" s="4"/>
       <c r="L727" s="4"/>
     </row>
-    <row r="728">
+    <row r="728" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
       <c r="K728" s="4"/>
       <c r="L728" s="4"/>
     </row>
-    <row r="729">
+    <row r="729" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
       <c r="K729" s="4"/>
       <c r="L729" s="4"/>
     </row>
-    <row r="730">
+    <row r="730" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
       <c r="K730" s="4"/>
       <c r="L730" s="4"/>
     </row>
-    <row r="731">
+    <row r="731" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
       <c r="K731" s="4"/>
       <c r="L731" s="4"/>
     </row>
-    <row r="732">
+    <row r="732" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
       <c r="K732" s="4"/>
       <c r="L732" s="4"/>
     </row>
-    <row r="733">
+    <row r="733" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
       <c r="K733" s="4"/>
       <c r="L733" s="4"/>
     </row>
-    <row r="734">
+    <row r="734" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
       <c r="K734" s="4"/>
       <c r="L734" s="4"/>
     </row>
-    <row r="735">
+    <row r="735" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
       <c r="K735" s="4"/>
       <c r="L735" s="4"/>
     </row>
-    <row r="736">
+    <row r="736" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
       <c r="K736" s="4"/>
       <c r="L736" s="4"/>
     </row>
-    <row r="737">
+    <row r="737" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
       <c r="K737" s="4"/>
       <c r="L737" s="4"/>
     </row>
-    <row r="738">
+    <row r="738" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
       <c r="K738" s="4"/>
       <c r="L738" s="4"/>
     </row>
-    <row r="739">
+    <row r="739" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
       <c r="K739" s="4"/>
       <c r="L739" s="4"/>
     </row>
-    <row r="740">
+    <row r="740" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
       <c r="K740" s="4"/>
       <c r="L740" s="4"/>
     </row>
-    <row r="741">
+    <row r="741" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
       <c r="K741" s="4"/>
       <c r="L741" s="4"/>
     </row>
-    <row r="742">
+    <row r="742" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
       <c r="K742" s="4"/>
       <c r="L742" s="4"/>
     </row>
-    <row r="743">
+    <row r="743" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
       <c r="K743" s="4"/>
       <c r="L743" s="4"/>
     </row>
-    <row r="744">
+    <row r="744" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
       <c r="K744" s="4"/>
       <c r="L744" s="4"/>
     </row>
-    <row r="745">
+    <row r="745" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
       <c r="K745" s="4"/>
       <c r="L745" s="4"/>
     </row>
-    <row r="746">
+    <row r="746" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
       <c r="K746" s="4"/>
       <c r="L746" s="4"/>
     </row>
-    <row r="747">
+    <row r="747" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
       <c r="K747" s="4"/>
       <c r="L747" s="4"/>
     </row>
-    <row r="748">
+    <row r="748" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
       <c r="K748" s="4"/>
       <c r="L748" s="4"/>
     </row>
-    <row r="749">
+    <row r="749" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
       <c r="K749" s="4"/>
       <c r="L749" s="4"/>
     </row>
-    <row r="750">
+    <row r="750" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
       <c r="K750" s="4"/>
       <c r="L750" s="4"/>
     </row>
-    <row r="751">
+    <row r="751" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
       <c r="K751" s="4"/>
       <c r="L751" s="4"/>
     </row>
-    <row r="752">
+    <row r="752" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
       <c r="K752" s="4"/>
       <c r="L752" s="4"/>
     </row>
-    <row r="753">
+    <row r="753" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
       <c r="K753" s="4"/>
       <c r="L753" s="4"/>
     </row>
-    <row r="754">
+    <row r="754" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
       <c r="K754" s="4"/>
       <c r="L754" s="4"/>
     </row>
-    <row r="755">
+    <row r="755" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
       <c r="K755" s="4"/>
       <c r="L755" s="4"/>
     </row>
-    <row r="756">
+    <row r="756" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
       <c r="K756" s="4"/>
       <c r="L756" s="4"/>
     </row>
-    <row r="757">
+    <row r="757" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
       <c r="K757" s="4"/>
       <c r="L757" s="4"/>
     </row>
-    <row r="758">
+    <row r="758" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
       <c r="K758" s="4"/>
       <c r="L758" s="4"/>
     </row>
-    <row r="759">
+    <row r="759" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
       <c r="K759" s="4"/>
       <c r="L759" s="4"/>
     </row>
-    <row r="760">
+    <row r="760" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
       <c r="K760" s="4"/>
       <c r="L760" s="4"/>
     </row>
-    <row r="761">
+    <row r="761" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
       <c r="K761" s="4"/>
       <c r="L761" s="4"/>
     </row>
-    <row r="762">
+    <row r="762" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
       <c r="K762" s="4"/>
       <c r="L762" s="4"/>
     </row>
-    <row r="763">
+    <row r="763" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
       <c r="K763" s="4"/>
       <c r="L763" s="4"/>
     </row>
-    <row r="764">
+    <row r="764" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
       <c r="K764" s="4"/>
       <c r="L764" s="4"/>
     </row>
-    <row r="765">
+    <row r="765" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
       <c r="K765" s="4"/>
       <c r="L765" s="4"/>
     </row>
-    <row r="766">
+    <row r="766" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
       <c r="K766" s="4"/>
       <c r="L766" s="4"/>
     </row>
-    <row r="767">
+    <row r="767" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
       <c r="K767" s="4"/>
       <c r="L767" s="4"/>
     </row>
-    <row r="768">
+    <row r="768" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
       <c r="K768" s="4"/>
       <c r="L768" s="4"/>
     </row>
-    <row r="769">
+    <row r="769" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
       <c r="K769" s="4"/>
       <c r="L769" s="4"/>
     </row>
-    <row r="770">
+    <row r="770" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
       <c r="K770" s="4"/>
       <c r="L770" s="4"/>
     </row>
-    <row r="771">
+    <row r="771" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
       <c r="K771" s="4"/>
       <c r="L771" s="4"/>
     </row>
-    <row r="772">
+    <row r="772" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
       <c r="K772" s="4"/>
       <c r="L772" s="4"/>
     </row>
-    <row r="773">
+    <row r="773" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
       <c r="K773" s="4"/>
       <c r="L773" s="4"/>
     </row>
-    <row r="774">
+    <row r="774" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
       <c r="K774" s="4"/>
       <c r="L774" s="4"/>
     </row>
-    <row r="775">
+    <row r="775" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
       <c r="K775" s="4"/>
       <c r="L775" s="4"/>
     </row>
-    <row r="776">
+    <row r="776" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
       <c r="K776" s="4"/>
       <c r="L776" s="4"/>
     </row>
-    <row r="777">
+    <row r="777" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
       <c r="K777" s="4"/>
       <c r="L777" s="4"/>
     </row>
-    <row r="778">
+    <row r="778" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
       <c r="K778" s="4"/>
       <c r="L778" s="4"/>
     </row>
-    <row r="779">
+    <row r="779" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
       <c r="K779" s="4"/>
       <c r="L779" s="4"/>
     </row>
-    <row r="780">
+    <row r="780" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
       <c r="K780" s="4"/>
       <c r="L780" s="4"/>
     </row>
-    <row r="781">
+    <row r="781" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
       <c r="K781" s="4"/>
       <c r="L781" s="4"/>
     </row>
-    <row r="782">
+    <row r="782" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
       <c r="K782" s="4"/>
       <c r="L782" s="4"/>
     </row>
-    <row r="783">
+    <row r="783" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
       <c r="K783" s="4"/>
       <c r="L783" s="4"/>
     </row>
-    <row r="784">
+    <row r="784" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
       <c r="K784" s="4"/>
       <c r="L784" s="4"/>
     </row>
-    <row r="785">
+    <row r="785" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
       <c r="K785" s="4"/>
       <c r="L785" s="4"/>
     </row>
-    <row r="786">
+    <row r="786" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
       <c r="K786" s="4"/>
       <c r="L786" s="4"/>
     </row>
-    <row r="787">
+    <row r="787" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
       <c r="K787" s="4"/>
       <c r="L787" s="4"/>
     </row>
-    <row r="788">
+    <row r="788" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
       <c r="K788" s="4"/>
       <c r="L788" s="4"/>
     </row>
-    <row r="789">
+    <row r="789" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
       <c r="K789" s="4"/>
       <c r="L789" s="4"/>
     </row>
-    <row r="790">
+    <row r="790" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
       <c r="K790" s="4"/>
       <c r="L790" s="4"/>
     </row>
-    <row r="791">
+    <row r="791" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
       <c r="K791" s="4"/>
       <c r="L791" s="4"/>
     </row>
-    <row r="792">
+    <row r="792" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
       <c r="K792" s="4"/>
       <c r="L792" s="4"/>
     </row>
-    <row r="793">
+    <row r="793" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
       <c r="K793" s="4"/>
       <c r="L793" s="4"/>
     </row>
-    <row r="794">
+    <row r="794" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
       <c r="K794" s="4"/>
       <c r="L794" s="4"/>
     </row>
-    <row r="795">
+    <row r="795" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
       <c r="K795" s="4"/>
       <c r="L795" s="4"/>
     </row>
-    <row r="796">
+    <row r="796" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
       <c r="K796" s="4"/>
       <c r="L796" s="4"/>
     </row>
-    <row r="797">
+    <row r="797" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
       <c r="K797" s="4"/>
       <c r="L797" s="4"/>
     </row>
-    <row r="798">
+    <row r="798" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
       <c r="K798" s="4"/>
       <c r="L798" s="4"/>
     </row>
-    <row r="799">
+    <row r="799" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
       <c r="K799" s="4"/>
       <c r="L799" s="4"/>
     </row>
-    <row r="800">
+    <row r="800" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
       <c r="K800" s="4"/>
       <c r="L800" s="4"/>
     </row>
-    <row r="801">
+    <row r="801" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
       <c r="K801" s="4"/>
       <c r="L801" s="4"/>
     </row>
-    <row r="802">
+    <row r="802" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
       <c r="K802" s="4"/>
       <c r="L802" s="4"/>
     </row>
-    <row r="803">
+    <row r="803" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
       <c r="K803" s="4"/>
       <c r="L803" s="4"/>
     </row>
-    <row r="804">
+    <row r="804" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
       <c r="K804" s="4"/>
       <c r="L804" s="4"/>
     </row>
-    <row r="805">
+    <row r="805" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
       <c r="K805" s="4"/>
       <c r="L805" s="4"/>
     </row>
-    <row r="806">
+    <row r="806" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
       <c r="K806" s="4"/>
       <c r="L806" s="4"/>
     </row>
-    <row r="807">
+    <row r="807" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
       <c r="K807" s="4"/>
       <c r="L807" s="4"/>
     </row>
-    <row r="808">
+    <row r="808" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
       <c r="K808" s="4"/>
       <c r="L808" s="4"/>
     </row>
-    <row r="809">
+    <row r="809" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
       <c r="K809" s="4"/>
       <c r="L809" s="4"/>
     </row>
-    <row r="810">
+    <row r="810" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
       <c r="K810" s="4"/>
       <c r="L810" s="4"/>
     </row>
-    <row r="811">
+    <row r="811" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
       <c r="K811" s="4"/>
       <c r="L811" s="4"/>
     </row>
-    <row r="812">
+    <row r="812" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
       <c r="K812" s="4"/>
       <c r="L812" s="4"/>
     </row>
-    <row r="813">
+    <row r="813" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
       <c r="K813" s="4"/>
       <c r="L813" s="4"/>
     </row>
-    <row r="814">
+    <row r="814" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
       <c r="K814" s="4"/>
       <c r="L814" s="4"/>
     </row>
-    <row r="815">
+    <row r="815" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
       <c r="K815" s="4"/>
       <c r="L815" s="4"/>
     </row>
-    <row r="816">
+    <row r="816" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
       <c r="K816" s="4"/>
       <c r="L816" s="4"/>
     </row>
-    <row r="817">
+    <row r="817" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
       <c r="K817" s="4"/>
       <c r="L817" s="4"/>
     </row>
-    <row r="818">
+    <row r="818" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
       <c r="K818" s="4"/>
       <c r="L818" s="4"/>
     </row>
-    <row r="819">
+    <row r="819" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
       <c r="K819" s="4"/>
       <c r="L819" s="4"/>
     </row>
-    <row r="820">
+    <row r="820" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
       <c r="K820" s="4"/>
       <c r="L820" s="4"/>
     </row>
-    <row r="821">
+    <row r="821" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
       <c r="K821" s="4"/>
       <c r="L821" s="4"/>
     </row>
-    <row r="822">
+    <row r="822" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
       <c r="K822" s="4"/>
       <c r="L822" s="4"/>
     </row>
-    <row r="823">
+    <row r="823" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
       <c r="K823" s="4"/>
       <c r="L823" s="4"/>
     </row>
-    <row r="824">
+    <row r="824" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
       <c r="K824" s="4"/>
       <c r="L824" s="4"/>
     </row>
-    <row r="825">
+    <row r="825" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
       <c r="K825" s="4"/>
       <c r="L825" s="4"/>
     </row>
-    <row r="826">
+    <row r="826" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
       <c r="K826" s="4"/>
       <c r="L826" s="4"/>
     </row>
-    <row r="827">
+    <row r="827" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
       <c r="K827" s="4"/>
       <c r="L827" s="4"/>
     </row>
-    <row r="828">
+    <row r="828" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
       <c r="K828" s="4"/>
       <c r="L828" s="4"/>
     </row>
-    <row r="829">
+    <row r="829" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
       <c r="K829" s="4"/>
       <c r="L829" s="4"/>
     </row>
-    <row r="830">
+    <row r="830" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
       <c r="K830" s="4"/>
       <c r="L830" s="4"/>
     </row>
-    <row r="831">
+    <row r="831" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
       <c r="K831" s="4"/>
       <c r="L831" s="4"/>
     </row>
-    <row r="832">
+    <row r="832" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
       <c r="K832" s="4"/>
       <c r="L832" s="4"/>
     </row>
-    <row r="833">
+    <row r="833" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
       <c r="K833" s="4"/>
       <c r="L833" s="4"/>
     </row>
-    <row r="834">
+    <row r="834" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
       <c r="K834" s="4"/>
       <c r="L834" s="4"/>
     </row>
-    <row r="835">
+    <row r="835" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
       <c r="K835" s="4"/>
       <c r="L835" s="4"/>
     </row>
-    <row r="836">
+    <row r="836" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
       <c r="K836" s="4"/>
       <c r="L836" s="4"/>
     </row>
-    <row r="837">
+    <row r="837" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
       <c r="K837" s="4"/>
       <c r="L837" s="4"/>
     </row>
-    <row r="838">
+    <row r="838" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
       <c r="K838" s="4"/>
       <c r="L838" s="4"/>
     </row>
-    <row r="839">
+    <row r="839" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
       <c r="K839" s="4"/>
       <c r="L839" s="4"/>
     </row>
-    <row r="840">
+    <row r="840" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
       <c r="K840" s="4"/>
       <c r="L840" s="4"/>
     </row>
-    <row r="841">
+    <row r="841" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
       <c r="K841" s="4"/>
       <c r="L841" s="4"/>
     </row>
-    <row r="842">
+    <row r="842" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
       <c r="K842" s="4"/>
       <c r="L842" s="4"/>
     </row>
-    <row r="843">
+    <row r="843" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
       <c r="K843" s="4"/>
       <c r="L843" s="4"/>
     </row>
-    <row r="844">
+    <row r="844" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
       <c r="K844" s="4"/>
       <c r="L844" s="4"/>
     </row>
-    <row r="845">
+    <row r="845" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
       <c r="K845" s="4"/>
       <c r="L845" s="4"/>
     </row>
-    <row r="846">
+    <row r="846" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
       <c r="K846" s="4"/>
       <c r="L846" s="4"/>
     </row>
-    <row r="847">
+    <row r="847" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
       <c r="K847" s="4"/>
       <c r="L847" s="4"/>
     </row>
-    <row r="848">
+    <row r="848" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
       <c r="K848" s="4"/>
       <c r="L848" s="4"/>
     </row>
-    <row r="849">
+    <row r="849" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
       <c r="K849" s="4"/>
       <c r="L849" s="4"/>
     </row>
-    <row r="850">
+    <row r="850" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
       <c r="K850" s="4"/>
       <c r="L850" s="4"/>
     </row>
-    <row r="851">
+    <row r="851" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
       <c r="K851" s="4"/>
       <c r="L851" s="4"/>
     </row>
-    <row r="852">
+    <row r="852" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
       <c r="K852" s="4"/>
       <c r="L852" s="4"/>
     </row>
-    <row r="853">
+    <row r="853" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
       <c r="K853" s="4"/>
       <c r="L853" s="4"/>
     </row>
-    <row r="854">
+    <row r="854" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
       <c r="K854" s="4"/>
       <c r="L854" s="4"/>
     </row>
-    <row r="855">
+    <row r="855" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
       <c r="K855" s="4"/>
       <c r="L855" s="4"/>
     </row>
-    <row r="856">
+    <row r="856" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
       <c r="K856" s="4"/>
       <c r="L856" s="4"/>
     </row>
-    <row r="857">
+    <row r="857" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
       <c r="K857" s="4"/>
       <c r="L857" s="4"/>
     </row>
-    <row r="858">
+    <row r="858" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
       <c r="K858" s="4"/>
       <c r="L858" s="4"/>
     </row>
-    <row r="859">
+    <row r="859" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
       <c r="K859" s="4"/>
       <c r="L859" s="4"/>
     </row>
-    <row r="860">
+    <row r="860" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
       <c r="K860" s="4"/>
       <c r="L860" s="4"/>
     </row>
-    <row r="861">
+    <row r="861" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
       <c r="K861" s="4"/>
       <c r="L861" s="4"/>
     </row>
-    <row r="862">
+    <row r="862" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
       <c r="K862" s="4"/>
       <c r="L862" s="4"/>
     </row>
-    <row r="863">
+    <row r="863" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
       <c r="K863" s="4"/>
       <c r="L863" s="4"/>
     </row>
-    <row r="864">
+    <row r="864" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
       <c r="K864" s="4"/>
       <c r="L864" s="4"/>
     </row>
-    <row r="865">
+    <row r="865" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
       <c r="K865" s="4"/>
       <c r="L865" s="4"/>
     </row>
-    <row r="866">
+    <row r="866" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
       <c r="K866" s="4"/>
       <c r="L866" s="4"/>
     </row>
-    <row r="867">
+    <row r="867" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
       <c r="K867" s="4"/>
       <c r="L867" s="4"/>
     </row>
-    <row r="868">
+    <row r="868" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
       <c r="K868" s="4"/>
       <c r="L868" s="4"/>
     </row>
-    <row r="869">
+    <row r="869" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
       <c r="K869" s="4"/>
       <c r="L869" s="4"/>
     </row>
-    <row r="870">
+    <row r="870" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
       <c r="K870" s="4"/>
       <c r="L870" s="4"/>
     </row>
-    <row r="871">
+    <row r="871" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
       <c r="K871" s="4"/>
       <c r="L871" s="4"/>
     </row>
-    <row r="872">
+    <row r="872" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
       <c r="K872" s="4"/>
       <c r="L872" s="4"/>
     </row>
-    <row r="873">
+    <row r="873" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
       <c r="K873" s="4"/>
       <c r="L873" s="4"/>
     </row>
-    <row r="874">
+    <row r="874" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
       <c r="K874" s="4"/>
       <c r="L874" s="4"/>
     </row>
-    <row r="875">
+    <row r="875" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
       <c r="K875" s="4"/>
       <c r="L875" s="4"/>
     </row>
-    <row r="876">
+    <row r="876" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
       <c r="K876" s="4"/>
       <c r="L876" s="4"/>
     </row>
-    <row r="877">
+    <row r="877" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
       <c r="K877" s="4"/>
       <c r="L877" s="4"/>
     </row>
-    <row r="878">
+    <row r="878" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
       <c r="K878" s="4"/>
       <c r="L878" s="4"/>
     </row>
-    <row r="879">
+    <row r="879" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
       <c r="K879" s="4"/>
       <c r="L879" s="4"/>
     </row>
-    <row r="880">
+    <row r="880" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
       <c r="K880" s="4"/>
       <c r="L880" s="4"/>
     </row>
-    <row r="881">
+    <row r="881" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
       <c r="K881" s="4"/>
       <c r="L881" s="4"/>
     </row>
-    <row r="882">
+    <row r="882" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
       <c r="K882" s="4"/>
       <c r="L882" s="4"/>
     </row>
-    <row r="883">
+    <row r="883" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
       <c r="K883" s="4"/>
       <c r="L883" s="4"/>
     </row>
-    <row r="884">
+    <row r="884" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
       <c r="K884" s="4"/>
       <c r="L884" s="4"/>
     </row>
-    <row r="885">
+    <row r="885" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
       <c r="K885" s="4"/>
       <c r="L885" s="4"/>
     </row>
-    <row r="886">
+    <row r="886" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
       <c r="K886" s="4"/>
       <c r="L886" s="4"/>
     </row>
-    <row r="887">
+    <row r="887" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
       <c r="K887" s="4"/>
       <c r="L887" s="4"/>
     </row>
-    <row r="888">
+    <row r="888" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
       <c r="K888" s="4"/>
       <c r="L888" s="4"/>
     </row>
-    <row r="889">
+    <row r="889" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
       <c r="K889" s="4"/>
       <c r="L889" s="4"/>
     </row>
-    <row r="890">
+    <row r="890" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
       <c r="K890" s="4"/>
       <c r="L890" s="4"/>
     </row>
-    <row r="891">
+    <row r="891" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
       <c r="K891" s="4"/>
       <c r="L891" s="4"/>
     </row>
-    <row r="892">
+    <row r="892" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
       <c r="K892" s="4"/>
       <c r="L892" s="4"/>
     </row>
-    <row r="893">
+    <row r="893" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
       <c r="K893" s="4"/>
       <c r="L893" s="4"/>
     </row>
-    <row r="894">
+    <row r="894" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
       <c r="K894" s="4"/>
       <c r="L894" s="4"/>
     </row>
-    <row r="895">
+    <row r="895" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
       <c r="K895" s="4"/>
       <c r="L895" s="4"/>
     </row>
-    <row r="896">
+    <row r="896" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
       <c r="K896" s="4"/>
       <c r="L896" s="4"/>
     </row>
-    <row r="897">
+    <row r="897" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
       <c r="K897" s="4"/>
       <c r="L897" s="4"/>
     </row>
-    <row r="898">
+    <row r="898" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
       <c r="K898" s="4"/>
       <c r="L898" s="4"/>
     </row>
-    <row r="899">
+    <row r="899" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
       <c r="K899" s="4"/>
       <c r="L899" s="4"/>
     </row>
-    <row r="900">
+    <row r="900" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
       <c r="K900" s="4"/>
       <c r="L900" s="4"/>
     </row>
-    <row r="901">
+    <row r="901" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
       <c r="K901" s="4"/>
       <c r="L901" s="4"/>
     </row>
-    <row r="902">
+    <row r="902" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
       <c r="K902" s="4"/>
       <c r="L902" s="4"/>
     </row>
-    <row r="903">
+    <row r="903" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
       <c r="K903" s="4"/>
       <c r="L903" s="4"/>
     </row>
-    <row r="904">
+    <row r="904" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
       <c r="K904" s="4"/>
       <c r="L904" s="4"/>
     </row>
-    <row r="905">
+    <row r="905" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
       <c r="K905" s="4"/>
       <c r="L905" s="4"/>
     </row>
-    <row r="906">
+    <row r="906" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
       <c r="K906" s="4"/>
       <c r="L906" s="4"/>
     </row>
-    <row r="907">
+    <row r="907" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
       <c r="K907" s="4"/>
       <c r="L907" s="4"/>
     </row>
-    <row r="908">
+    <row r="908" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
       <c r="K908" s="4"/>
       <c r="L908" s="4"/>
     </row>
-    <row r="909">
+    <row r="909" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
       <c r="K909" s="4"/>
       <c r="L909" s="4"/>
     </row>
-    <row r="910">
+    <row r="910" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
       <c r="K910" s="4"/>
       <c r="L910" s="4"/>
     </row>
-    <row r="911">
+    <row r="911" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
       <c r="K911" s="4"/>
       <c r="L911" s="4"/>
     </row>
-    <row r="912">
+    <row r="912" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
       <c r="K912" s="4"/>
       <c r="L912" s="4"/>
     </row>
-    <row r="913">
+    <row r="913" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
       <c r="K913" s="4"/>
       <c r="L913" s="4"/>
     </row>
-    <row r="914">
+    <row r="914" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
       <c r="K914" s="4"/>
       <c r="L914" s="4"/>
     </row>
-    <row r="915">
+    <row r="915" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
       <c r="K915" s="4"/>
       <c r="L915" s="4"/>
     </row>
-    <row r="916">
+    <row r="916" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
       <c r="K916" s="4"/>
       <c r="L916" s="4"/>
     </row>
-    <row r="917">
+    <row r="917" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
       <c r="K917" s="4"/>
       <c r="L917" s="4"/>
     </row>
-    <row r="918">
+    <row r="918" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
       <c r="K918" s="4"/>
       <c r="L918" s="4"/>
     </row>
-    <row r="919">
+    <row r="919" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
       <c r="K919" s="4"/>
       <c r="L919" s="4"/>
     </row>
-    <row r="920">
+    <row r="920" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
       <c r="K920" s="4"/>
       <c r="L920" s="4"/>
     </row>
-    <row r="921">
+    <row r="921" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
       <c r="K921" s="4"/>
       <c r="L921" s="4"/>
     </row>
-    <row r="922">
+    <row r="922" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
       <c r="K922" s="4"/>
       <c r="L922" s="4"/>
     </row>
-    <row r="923">
+    <row r="923" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
       <c r="K923" s="4"/>
       <c r="L923" s="4"/>
     </row>
-    <row r="924">
+    <row r="924" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
       <c r="K924" s="4"/>
       <c r="L924" s="4"/>
     </row>
-    <row r="925">
+    <row r="925" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
       <c r="K925" s="4"/>
       <c r="L925" s="4"/>
     </row>
-    <row r="926">
+    <row r="926" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
       <c r="K926" s="4"/>
       <c r="L926" s="4"/>
     </row>
-    <row r="927">
+    <row r="927" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
       <c r="K927" s="4"/>
       <c r="L927" s="4"/>
     </row>
-    <row r="928">
+    <row r="928" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
       <c r="K928" s="4"/>
       <c r="L928" s="4"/>
     </row>
-    <row r="929">
+    <row r="929" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
       <c r="K929" s="4"/>
       <c r="L929" s="4"/>
     </row>
-    <row r="930">
+    <row r="930" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
       <c r="K930" s="4"/>
       <c r="L930" s="4"/>
     </row>
-    <row r="931">
+    <row r="931" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
       <c r="K931" s="4"/>
       <c r="L931" s="4"/>
     </row>
-    <row r="932">
+    <row r="932" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
       <c r="K932" s="4"/>
       <c r="L932" s="4"/>
     </row>
-    <row r="933">
+    <row r="933" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
       <c r="K933" s="4"/>
       <c r="L933" s="4"/>
     </row>
-    <row r="934">
+    <row r="934" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
       <c r="K934" s="4"/>
       <c r="L934" s="4"/>
     </row>
-    <row r="935">
+    <row r="935" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
       <c r="K935" s="4"/>
       <c r="L935" s="4"/>
     </row>
-    <row r="936">
+    <row r="936" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
       <c r="K936" s="4"/>
       <c r="L936" s="4"/>
     </row>
-    <row r="937">
+    <row r="937" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C937" s="3"/>
       <c r="D937" s="3"/>
       <c r="K937" s="4"/>
       <c r="L937" s="4"/>
     </row>
-    <row r="938">
+    <row r="938" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C938" s="3"/>
       <c r="D938" s="3"/>
       <c r="K938" s="4"/>
       <c r="L938" s="4"/>
     </row>
-    <row r="939">
+    <row r="939" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C939" s="3"/>
       <c r="D939" s="3"/>
       <c r="K939" s="4"/>
       <c r="L939" s="4"/>
     </row>
-    <row r="940">
+    <row r="940" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
       <c r="K940" s="4"/>
       <c r="L940" s="4"/>
     </row>
-    <row r="941">
+    <row r="941" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
       <c r="K941" s="4"/>
       <c r="L941" s="4"/>
     </row>
-    <row r="942">
+    <row r="942" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
       <c r="K942" s="4"/>
       <c r="L942" s="4"/>
     </row>
-    <row r="943">
+    <row r="943" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
       <c r="K943" s="4"/>
       <c r="L943" s="4"/>
     </row>
-    <row r="944">
+    <row r="944" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
       <c r="K944" s="4"/>
       <c r="L944" s="4"/>
     </row>
-    <row r="945">
+    <row r="945" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
       <c r="K945" s="4"/>
       <c r="L945" s="4"/>
     </row>
-    <row r="946">
+    <row r="946" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
       <c r="K946" s="4"/>
       <c r="L946" s="4"/>
     </row>
-    <row r="947">
+    <row r="947" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
       <c r="K947" s="4"/>
       <c r="L947" s="4"/>
     </row>
-    <row r="948">
+    <row r="948" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
       <c r="K948" s="4"/>
       <c r="L948" s="4"/>
     </row>
-    <row r="949">
+    <row r="949" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
       <c r="K949" s="4"/>
       <c r="L949" s="4"/>
     </row>
-    <row r="950">
+    <row r="950" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
       <c r="K950" s="4"/>
       <c r="L950" s="4"/>
     </row>
-    <row r="951">
+    <row r="951" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C951" s="3"/>
       <c r="D951" s="3"/>
       <c r="K951" s="4"/>
       <c r="L951" s="4"/>
     </row>
-    <row r="952">
+    <row r="952" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C952" s="3"/>
       <c r="D952" s="3"/>
       <c r="K952" s="4"/>
       <c r="L952" s="4"/>
     </row>
-    <row r="953">
+    <row r="953" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
       <c r="K953" s="4"/>
       <c r="L953" s="4"/>
     </row>
-    <row r="954">
+    <row r="954" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
       <c r="K954" s="4"/>
       <c r="L954" s="4"/>
     </row>
-    <row r="955">
+    <row r="955" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C955" s="3"/>
       <c r="D955" s="3"/>
       <c r="K955" s="4"/>
       <c r="L955" s="4"/>
     </row>
-    <row r="956">
+    <row r="956" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C956" s="3"/>
       <c r="D956" s="3"/>
       <c r="K956" s="4"/>
       <c r="L956" s="4"/>
     </row>
-    <row r="957">
+    <row r="957" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C957" s="3"/>
       <c r="D957" s="3"/>
       <c r="K957" s="4"/>
       <c r="L957" s="4"/>
     </row>
-    <row r="958">
+    <row r="958" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C958" s="3"/>
       <c r="D958" s="3"/>
       <c r="K958" s="4"/>
       <c r="L958" s="4"/>
     </row>
-    <row r="959">
+    <row r="959" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C959" s="3"/>
       <c r="D959" s="3"/>
       <c r="K959" s="4"/>
       <c r="L959" s="4"/>
     </row>
-    <row r="960">
+    <row r="960" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C960" s="3"/>
       <c r="D960" s="3"/>
       <c r="K960" s="4"/>
       <c r="L960" s="4"/>
     </row>
-    <row r="961">
+    <row r="961" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C961" s="3"/>
       <c r="D961" s="3"/>
       <c r="K961" s="4"/>
       <c r="L961" s="4"/>
     </row>
-    <row r="962">
+    <row r="962" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C962" s="3"/>
       <c r="D962" s="3"/>
       <c r="K962" s="4"/>
       <c r="L962" s="4"/>
     </row>
-    <row r="963">
+    <row r="963" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C963" s="3"/>
       <c r="D963" s="3"/>
       <c r="K963" s="4"/>
       <c r="L963" s="4"/>
     </row>
-    <row r="964">
+    <row r="964" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C964" s="3"/>
       <c r="D964" s="3"/>
       <c r="K964" s="4"/>
       <c r="L964" s="4"/>
     </row>
-    <row r="965">
+    <row r="965" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C965" s="3"/>
       <c r="D965" s="3"/>
       <c r="K965" s="4"/>
       <c r="L965" s="4"/>
     </row>
-    <row r="966">
+    <row r="966" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C966" s="3"/>
       <c r="D966" s="3"/>
       <c r="K966" s="4"/>
       <c r="L966" s="4"/>
     </row>
-    <row r="967">
+    <row r="967" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C967" s="3"/>
       <c r="D967" s="3"/>
       <c r="K967" s="4"/>
       <c r="L967" s="4"/>
     </row>
-    <row r="968">
+    <row r="968" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C968" s="3"/>
       <c r="D968" s="3"/>
       <c r="K968" s="4"/>
       <c r="L968" s="4"/>
     </row>
-    <row r="969">
+    <row r="969" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C969" s="3"/>
       <c r="D969" s="3"/>
       <c r="K969" s="4"/>
       <c r="L969" s="4"/>
     </row>
-    <row r="970">
+    <row r="970" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C970" s="3"/>
       <c r="D970" s="3"/>
       <c r="K970" s="4"/>
       <c r="L970" s="4"/>
     </row>
-    <row r="971">
+    <row r="971" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C971" s="3"/>
       <c r="D971" s="3"/>
       <c r="K971" s="4"/>
       <c r="L971" s="4"/>
     </row>
-    <row r="972">
+    <row r="972" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C972" s="3"/>
       <c r="D972" s="3"/>
       <c r="K972" s="4"/>
       <c r="L972" s="4"/>
     </row>
-    <row r="973">
+    <row r="973" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C973" s="3"/>
       <c r="D973" s="3"/>
       <c r="K973" s="4"/>
       <c r="L973" s="4"/>
     </row>
-    <row r="974">
+    <row r="974" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C974" s="3"/>
       <c r="D974" s="3"/>
       <c r="K974" s="4"/>
       <c r="L974" s="4"/>
     </row>
-    <row r="975">
+    <row r="975" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C975" s="3"/>
       <c r="D975" s="3"/>
       <c r="K975" s="4"/>
       <c r="L975" s="4"/>
     </row>
-    <row r="976">
+    <row r="976" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C976" s="3"/>
       <c r="D976" s="3"/>
       <c r="K976" s="4"/>
       <c r="L976" s="4"/>
     </row>
-    <row r="977">
+    <row r="977" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C977" s="3"/>
       <c r="D977" s="3"/>
       <c r="K977" s="4"/>
       <c r="L977" s="4"/>
     </row>
-    <row r="978">
+    <row r="978" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C978" s="3"/>
       <c r="D978" s="3"/>
       <c r="K978" s="4"/>
       <c r="L978" s="4"/>
     </row>
-    <row r="979">
+    <row r="979" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C979" s="3"/>
       <c r="D979" s="3"/>
       <c r="K979" s="4"/>
       <c r="L979" s="4"/>
     </row>
-    <row r="980">
+    <row r="980" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C980" s="3"/>
       <c r="D980" s="3"/>
       <c r="K980" s="4"/>
       <c r="L980" s="4"/>
     </row>
-    <row r="981">
+    <row r="981" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C981" s="3"/>
       <c r="D981" s="3"/>
       <c r="K981" s="4"/>
       <c r="L981" s="4"/>
     </row>
-    <row r="982">
+    <row r="982" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C982" s="3"/>
       <c r="D982" s="3"/>
       <c r="K982" s="4"/>
       <c r="L982" s="4"/>
     </row>
-    <row r="983">
+    <row r="983" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C983" s="3"/>
       <c r="D983" s="3"/>
       <c r="K983" s="4"/>
       <c r="L983" s="4"/>
     </row>
-    <row r="984">
+    <row r="984" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C984" s="3"/>
       <c r="D984" s="3"/>
       <c r="K984" s="4"/>
       <c r="L984" s="4"/>
     </row>
-    <row r="985">
+    <row r="985" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C985" s="3"/>
       <c r="D985" s="3"/>
       <c r="K985" s="4"/>
       <c r="L985" s="4"/>
     </row>
-    <row r="986">
+    <row r="986" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C986" s="3"/>
       <c r="D986" s="3"/>
       <c r="K986" s="4"/>
       <c r="L986" s="4"/>
     </row>
-    <row r="987">
+    <row r="987" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C987" s="3"/>
       <c r="D987" s="3"/>
       <c r="K987" s="4"/>
       <c r="L987" s="4"/>
     </row>
-    <row r="988">
+    <row r="988" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C988" s="3"/>
       <c r="D988" s="3"/>
       <c r="K988" s="4"/>
       <c r="L988" s="4"/>
     </row>
-    <row r="989">
+    <row r="989" spans="3:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C989" s="3"/>
       <c r="D989" s="3"/>
       <c r="K989" s="4"/>
       <c r="L989" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8069,9 +8470,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -8087,7 +8488,7 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
@@ -8095,9 +8496,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -8113,7 +8514,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>19</v>
@@ -8121,9 +8522,9 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -8141,7 +8542,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>26</v>
@@ -8153,9 +8554,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -8173,7 +8574,7 @@
         <v>33</v>
       </c>
       <c r="G5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>34</v>
@@ -8185,9 +8586,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -8205,7 +8606,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>41</v>
@@ -8213,9 +8614,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
@@ -8233,7 +8634,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>34</v>
@@ -8245,9 +8646,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>44</v>
@@ -8265,7 +8666,7 @@
         <v>47</v>
       </c>
       <c r="G8" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>48</v>
@@ -8273,9 +8674,9 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>50</v>
@@ -8293,7 +8694,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>56</v>
@@ -8301,9 +8702,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>50</v>
@@ -8321,7 +8722,7 @@
         <v>62</v>
       </c>
       <c r="G10" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>64</v>
@@ -8329,9 +8730,9 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>65</v>
@@ -8349,7 +8750,7 @@
         <v>69</v>
       </c>
       <c r="G11" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>70</v>
@@ -8357,9 +8758,9 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -8375,15 +8776,15 @@
         <v>73</v>
       </c>
       <c r="G12" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -8399,15 +8800,15 @@
         <v>75</v>
       </c>
       <c r="G13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -8423,15 +8824,15 @@
         <v>77</v>
       </c>
       <c r="G14" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -8447,15 +8848,15 @@
         <v>79</v>
       </c>
       <c r="G15" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -8471,15 +8872,15 @@
         <v>81</v>
       </c>
       <c r="G16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -8495,13 +8896,13 @@
         <v>84</v>
       </c>
       <c r="G17" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8513,7 +8914,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -8525,7 +8926,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8537,7 +8938,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8549,7 +8950,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -8561,12 +8962,12 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -8577,12 +8978,12 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B24" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8593,12 +8994,12 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B25" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -8609,12 +9010,12 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B26" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -8625,12 +9026,12 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8641,7 +9042,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>93</v>
       </c>
@@ -8655,7 +9056,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -8669,12 +9070,12 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B30" s="11">
-        <v>43609.04252314815</v>
+        <v>43609.042523148149</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8685,7 +9086,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
@@ -8701,7 +9102,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
@@ -8717,7 +9118,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8730,6 +9131,6 @@
       <c r="J33" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>